--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_6_27.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_6_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1499983.709729052</v>
+        <v>1497302.299076519</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4715399.674601325</v>
+        <v>4715399.674601326</v>
       </c>
     </row>
     <row r="9">
@@ -661,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>24.07357932158342</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>104.535125238206</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -718,13 +718,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>392.5258019886049</v>
@@ -825,16 +825,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>10.93821467304342</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>55.12369050152974</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -867,19 +867,19 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>229.8194748697975</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
         <v>412.725494085322</v>
@@ -943,22 +943,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>48.02086213497415</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>109.4449070220129</v>
       </c>
       <c r="E7" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
         <v>166.5715133615489</v>
@@ -1074,7 +1074,7 @@
         <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>30.07448747215907</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>22.73421951217737</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1141,16 +1141,16 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>156.052151816454</v>
       </c>
       <c r="G8" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -1186,10 +1186,10 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>42.30772385275538</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1290,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>76.09855113612963</v>
       </c>
       <c r="C10" t="n">
-        <v>13.11282305201843</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>396.4897982542829</v>
+        <v>374.8398307286966</v>
       </c>
       <c r="C11" t="n">
-        <v>114.4568213029641</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>412.725494085322</v>
@@ -1387,7 +1387,7 @@
         <v>408.7846186869749</v>
       </c>
       <c r="H11" t="n">
-        <v>318.3176568687902</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1426,19 +1426,19 @@
         <v>220.1865020871814</v>
       </c>
       <c r="U11" t="n">
-        <v>253.1754815281552</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="12">
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>15.4888696081583</v>
+        <v>15.48886960815829</v>
       </c>
       <c r="S12" t="n">
         <v>131.1314955077976</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1551,7 +1551,7 @@
         <v>128.438172086704</v>
       </c>
       <c r="J13" t="n">
-        <v>22.25679452515966</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1578,22 +1578,22 @@
         <v>117.6900996594426</v>
       </c>
       <c r="S13" t="n">
-        <v>198.8608923274312</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>232.8894020508675</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>282.5783724456766</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>9.495849642203742</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>98.89269106189384</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1609,16 +1609,16 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
-        <v>398.5576896346209</v>
+        <v>101.4741755656265</v>
       </c>
       <c r="F14" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>408.7846186869749</v>
@@ -1654,22 +1654,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>22.1281966518506</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>220.1865020871814</v>
       </c>
       <c r="U14" t="n">
-        <v>189.2225914090729</v>
+        <v>253.1754815281552</v>
       </c>
       <c r="V14" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>385.5580790162737</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>15.4888696081583</v>
+        <v>15.48886960815829</v>
       </c>
       <c r="S15" t="n">
         <v>131.1314955077976</v>
@@ -1767,28 +1767,28 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>58.28034874214575</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4609377894556</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>152.9406481689638</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>128.438172086704</v>
+        <v>123.8776918941204</v>
       </c>
       <c r="J16" t="n">
-        <v>22.25679452515966</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>198.8608923274312</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>232.8894020508675</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>282.5783724456766</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1846,10 +1846,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
         <v>398.5576896346209</v>
@@ -1858,13 +1858,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>354.1983295939286</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>314.7099853831353</v>
       </c>
       <c r="I17" t="n">
-        <v>113.8693593270195</v>
+        <v>113.8693593270194</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>218.6444459974996</v>
       </c>
       <c r="U17" t="n">
-        <v>253.1473000347972</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>338.6857412035168</v>
@@ -1912,7 +1912,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
-        <v>392.5258019886049</v>
+        <v>229.0409676397329</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>84.320299612958</v>
       </c>
       <c r="I18" t="n">
-        <v>37.86294566882081</v>
+        <v>37.8629456688208</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>3.786554340597842</v>
+        <v>3.786554340597824</v>
       </c>
       <c r="S18" t="n">
         <v>127.6305556124798</v>
@@ -2010,22 +2010,22 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>13.71977023902565</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.3029221927327</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>151.5357458635549</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>123.6862121416195</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>11.08509183685201</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2055,22 +2055,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>232.2142445012334</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>282.5697534131281</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>76.66783807881646</v>
       </c>
     </row>
     <row r="20">
@@ -2089,13 +2089,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>363.5122727464508</v>
+        <v>408.4323500200001</v>
       </c>
       <c r="H20" t="n">
         <v>314.7099853831353</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>151.2037672717813</v>
+        <v>105.4779935141024</v>
       </c>
       <c r="T20" t="n">
-        <v>218.6444459974996</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>253.1473000347972</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>367.2890446813954</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>136.2154084083701</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.3029221927327</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>151.5357458635549</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2292,22 +2292,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>62.17082681191274</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>282.5697534131281</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="23">
@@ -2320,10 +2320,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
         <v>398.5576896346209</v>
@@ -2332,13 +2332,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
-        <v>408.4323500200001</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>314.7099853831353</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>51.26091212220495</v>
+        <v>113.8693593270195</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,19 +2368,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>3.84516886732003</v>
       </c>
       <c r="T23" t="n">
         <v>218.6444459974996</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>253.1473000347972</v>
       </c>
       <c r="V23" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>385.5580790162737</v>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>76.19311257242943</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>110.585143828612</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>196.1071114281788</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>232.2142445012334</v>
@@ -2538,7 +2538,7 @@
         <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
-        <v>49.99795536377299</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>398.5576896346209</v>
@@ -2575,7 +2575,7 @@
         <v>314.7099853831353</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>113.8693593270194</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>118.8160130109945</v>
+        <v>151.2037672717813</v>
       </c>
       <c r="T26" t="n">
         <v>218.6444459974996</v>
@@ -2617,7 +2617,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>235.3296039076938</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>3.786554340597842</v>
+        <v>3.786554340597835</v>
       </c>
       <c r="S27" t="n">
         <v>127.6305556124798</v>
@@ -2718,7 +2718,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.3029221927327</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>104.3952157675365</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>101.284777208426</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>110.585143828612</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>196.1071114281788</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2775,13 +2775,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="29">
@@ -2806,7 +2806,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>408.4323500200001</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,19 +2842,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>151.2037672717813</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>218.6444459974996</v>
       </c>
       <c r="U29" t="n">
-        <v>222.2172295452413</v>
+        <v>149.9114521408729</v>
       </c>
       <c r="V29" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>385.5580790162737</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>3.786554340597842</v>
+        <v>3.786554340597835</v>
       </c>
       <c r="S30" t="n">
         <v>127.6305556124798</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9792467097655</v>
+        <v>156.8716112101083</v>
       </c>
       <c r="H31" t="n">
         <v>151.5357458635549</v>
       </c>
       <c r="I31" t="n">
-        <v>123.6862121416195</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,16 +3006,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>282.5697534131281</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3034,7 +3034,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
         <v>398.5576896346209</v>
@@ -3043,7 +3043,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>408.4323500200001</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>151.2037672717813</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>199.4528797341614</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>253.1473000347972</v>
+        <v>152.4706207287588</v>
       </c>
       <c r="V32" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>367.2890446813954</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>3.786554340597842</v>
+        <v>3.786554340597835</v>
       </c>
       <c r="S33" t="n">
         <v>127.6305556124798</v>
@@ -3186,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>183.3559385043883</v>
+        <v>76.66783807881644</v>
       </c>
       <c r="C34" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>192.2849956042223</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3246,13 +3246,13 @@
         <v>282.5697534131281</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
         <v>408.4323500200001</v>
       </c>
       <c r="H35" t="n">
-        <v>314.7099853831353</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>113.8693593270195</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,19 +3316,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>151.2037672717813</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>218.6444459974996</v>
+        <v>152.4706207287588</v>
       </c>
       <c r="U35" t="n">
-        <v>253.1473000347972</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>320.3010760275079</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
         <v>385.5580790162737</v>
@@ -3365,7 +3365,7 @@
         <v>84.320299612958</v>
       </c>
       <c r="I36" t="n">
-        <v>37.86294566882081</v>
+        <v>37.8629456688208</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>3.786554340597842</v>
+        <v>3.786554340597831</v>
       </c>
       <c r="S36" t="n">
         <v>127.6305556124798</v>
@@ -3426,16 +3426,16 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C37" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>47.74454202375229</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>87.3414178476046</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>196.1071114281788</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5697534131281</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3517,13 +3517,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>3.845168867321268</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>113.8693593270194</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>151.2037672717813</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>218.6444459974996</v>
       </c>
       <c r="U38" t="n">
-        <v>237.9270952922347</v>
+        <v>253.1473000347972</v>
       </c>
       <c r="V38" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
         <v>392.5258019886049</v>
@@ -3602,7 +3602,7 @@
         <v>84.320299612958</v>
       </c>
       <c r="I39" t="n">
-        <v>37.86294566882081</v>
+        <v>37.8629456688208</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>3.786554340597835</v>
+        <v>3.786554340597821</v>
       </c>
       <c r="S39" t="n">
         <v>127.6305556124798</v>
@@ -3666,13 +3666,13 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
-        <v>49.81719738874638</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>196.1071114281788</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>148.5052147227868</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>282.5697534131281</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>266.5438251887742</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
         <v>389.2437464820987</v>
@@ -3748,13 +3748,13 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>225.7344357530714</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>151.2037672717813</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.6444459974996</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>84.320299612958</v>
       </c>
       <c r="I42" t="n">
-        <v>37.86294566882081</v>
+        <v>37.8629456688208</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>3.786554340597835</v>
+        <v>3.786554340597821</v>
       </c>
       <c r="S42" t="n">
         <v>127.6305556124798</v>
@@ -3900,25 +3900,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>154.3623803063778</v>
       </c>
       <c r="G43" t="n">
-        <v>119.3041877637143</v>
+        <v>166.3029221927327</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>151.5357458635549</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>123.6862121416195</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3982,16 +3982,16 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>408.4323500200001</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>151.2037672717813</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>239.9022402037721</v>
+        <v>253.1473000347972</v>
       </c>
       <c r="V44" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>367.2890446813954</v>
+        <v>101.9548321722828</v>
       </c>
       <c r="X44" t="n">
         <v>385.5580790162737</v>
@@ -4076,7 +4076,7 @@
         <v>84.320299612958</v>
       </c>
       <c r="I45" t="n">
-        <v>37.86294566882081</v>
+        <v>37.8629456688208</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>3.786554340597835</v>
+        <v>3.786554340597821</v>
       </c>
       <c r="S45" t="n">
         <v>127.6305556124798</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>49.84804004782286</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>154.0032240193895</v>
@@ -4152,13 +4152,13 @@
         <v>166.3029221927327</v>
       </c>
       <c r="H46" t="n">
-        <v>151.5357458635549</v>
+        <v>146.0235960616627</v>
       </c>
       <c r="I46" t="n">
-        <v>123.6862121416195</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>11.085091836852</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>232.2142445012334</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>947.2126397440632</v>
+        <v>1365.557470546238</v>
       </c>
       <c r="C2" t="n">
-        <v>947.2126397440632</v>
+        <v>972.3819690491689</v>
       </c>
       <c r="D2" t="n">
-        <v>947.2126397440632</v>
+        <v>972.3819690491689</v>
       </c>
       <c r="E2" t="n">
-        <v>947.2126397440632</v>
+        <v>569.7984441657134</v>
       </c>
       <c r="F2" t="n">
-        <v>922.895892954585</v>
+        <v>152.9040056956911</v>
       </c>
       <c r="G2" t="n">
-        <v>509.7331374425881</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H2" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I2" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J2" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K2" t="n">
-        <v>47.31297010154359</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L2" t="n">
-        <v>503.6092283712866</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M2" t="n">
-        <v>1049.610128415867</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N2" t="n">
-        <v>1577.421412053329</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="O2" t="n">
-        <v>2017.461012945658</v>
+        <v>2030.305891693271</v>
       </c>
       <c r="P2" t="n">
-        <v>2365.648505077179</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q2" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R2" t="n">
-        <v>2327.655591362701</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S2" t="n">
-        <v>2327.655591362701</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T2" t="n">
-        <v>2104.154988922118</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="U2" t="n">
-        <v>2104.154988922118</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="V2" t="n">
-        <v>2104.154988922118</v>
+        <v>1762.048179625637</v>
       </c>
       <c r="W2" t="n">
-        <v>1733.155953890405</v>
+        <v>1762.048179625637</v>
       </c>
       <c r="X2" t="n">
-        <v>1343.703348823462</v>
+        <v>1762.048179625637</v>
       </c>
       <c r="Y2" t="n">
-        <v>947.2126397440632</v>
+        <v>1365.557470546238</v>
       </c>
     </row>
     <row r="3">
@@ -4385,67 +4385,67 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>846.6789532415745</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C3" t="n">
-        <v>696.0247228016667</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D3" t="n">
-        <v>565.935755423147</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E3" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F3" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G3" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H3" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I3" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J3" t="n">
-        <v>47.31297010154359</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K3" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L3" t="n">
-        <v>850.6182020620834</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M3" t="n">
-        <v>850.6182020620834</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="N3" t="n">
-        <v>1209.14176221491</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O3" t="n">
-        <v>1725.662044805891</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P3" t="n">
-        <v>2131.283413522289</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q3" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R3" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S3" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T3" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U3" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V3" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W3" t="n">
         <v>1367.096582257017</v>
@@ -4454,7 +4454,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y3" t="n">
-        <v>998.4752876825358</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="4">
@@ -4464,37 +4464,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>102.9934655576342</v>
+        <v>539.420211517574</v>
       </c>
       <c r="C4" t="n">
-        <v>102.9934655576342</v>
+        <v>539.420211517574</v>
       </c>
       <c r="D4" t="n">
-        <v>102.9934655576342</v>
+        <v>539.420211517574</v>
       </c>
       <c r="E4" t="n">
-        <v>102.9934655576342</v>
+        <v>528.3715098276311</v>
       </c>
       <c r="F4" t="n">
-        <v>102.9934655576342</v>
+        <v>371.0455750406041</v>
       </c>
       <c r="G4" t="n">
-        <v>47.31297010154359</v>
+        <v>202.7915211400496</v>
       </c>
       <c r="H4" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I4" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J4" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K4" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L4" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M4" t="n">
         <v>479.5672294235493</v>
@@ -4515,25 +4515,25 @@
         <v>824.8590032756731</v>
       </c>
       <c r="S4" t="n">
-        <v>622.0429194582225</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="T4" t="n">
-        <v>386.3238676264566</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="U4" t="n">
-        <v>386.3238676264566</v>
+        <v>539.420211517574</v>
       </c>
       <c r="V4" t="n">
-        <v>386.3238676264566</v>
+        <v>539.420211517574</v>
       </c>
       <c r="W4" t="n">
-        <v>102.9934655576342</v>
+        <v>539.420211517574</v>
       </c>
       <c r="X4" t="n">
-        <v>102.9934655576342</v>
+        <v>539.420211517574</v>
       </c>
       <c r="Y4" t="n">
-        <v>102.9934655576342</v>
+        <v>539.420211517574</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1586.894343300404</v>
+        <v>1604.036739400527</v>
       </c>
       <c r="C5" t="n">
-        <v>1586.894343300404</v>
+        <v>1604.036739400527</v>
       </c>
       <c r="D5" t="n">
-        <v>1201.453214517072</v>
+        <v>1604.036739400527</v>
       </c>
       <c r="E5" t="n">
         <v>1201.453214517072</v>
@@ -4561,58 +4561,58 @@
         <v>371.396020535053</v>
       </c>
       <c r="H5" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I5" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J5" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K5" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L5" t="n">
-        <v>899.6156178475343</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M5" t="n">
-        <v>1445.616517892115</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="N5" t="n">
-        <v>1973.427801529577</v>
+        <v>1572.076674393824</v>
       </c>
       <c r="O5" t="n">
-        <v>2365.648505077179</v>
+        <v>2012.116275286153</v>
       </c>
       <c r="P5" t="n">
-        <v>2365.648505077179</v>
+        <v>2360.303767417675</v>
       </c>
       <c r="Q5" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R5" t="n">
-        <v>2327.655591362701</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S5" t="n">
-        <v>2161.142036303752</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T5" t="n">
-        <v>2161.142036303752</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U5" t="n">
-        <v>2161.142036303752</v>
+        <v>2317.142583728722</v>
       </c>
       <c r="V5" t="n">
-        <v>1819.03522700727</v>
+        <v>1975.03577443224</v>
       </c>
       <c r="W5" t="n">
-        <v>1819.03522700727</v>
+        <v>1604.036739400527</v>
       </c>
       <c r="X5" t="n">
-        <v>1819.03522700727</v>
+        <v>1604.036739400527</v>
       </c>
       <c r="Y5" t="n">
-        <v>1819.03522700727</v>
+        <v>1604.036739400527</v>
       </c>
     </row>
     <row r="6">
@@ -4640,31 +4640,31 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H6" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I6" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J6" t="n">
-        <v>47.31297010154359</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K6" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L6" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="M6" t="n">
-        <v>952.550121170372</v>
+        <v>1065.6651033901</v>
       </c>
       <c r="N6" t="n">
-        <v>1443.506853769801</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O6" t="n">
-        <v>1960.027136360782</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P6" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q6" t="n">
         <v>2365.648505077179</v>
@@ -4701,37 +4701,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>690.0770827182217</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="C7" t="n">
-        <v>690.0770827182217</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="D7" t="n">
-        <v>690.0770827182217</v>
+        <v>714.3085921423267</v>
       </c>
       <c r="E7" t="n">
-        <v>534.5182705774242</v>
+        <v>558.7497800015292</v>
       </c>
       <c r="F7" t="n">
-        <v>534.5182705774242</v>
+        <v>401.4238452145021</v>
       </c>
       <c r="G7" t="n">
-        <v>366.2642166768698</v>
+        <v>233.1697913139477</v>
       </c>
       <c r="H7" t="n">
-        <v>210.7856656383638</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="I7" t="n">
-        <v>77.69124027544164</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J7" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K7" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L7" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M7" t="n">
         <v>479.5672294235493</v>
@@ -4749,28 +4749,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R7" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S7" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="T7" t="n">
-        <v>713.0409408113302</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="U7" t="n">
-        <v>690.0770827182217</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="V7" t="n">
-        <v>690.0770827182217</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="W7" t="n">
-        <v>690.0770827182217</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="X7" t="n">
-        <v>690.0770827182217</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="Y7" t="n">
-        <v>690.0770827182217</v>
+        <v>824.8590032756731</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2118.406961705009</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="C8" t="n">
-        <v>1725.23146020794</v>
+        <v>1544.4659323661</v>
       </c>
       <c r="D8" t="n">
-        <v>1339.790331424607</v>
+        <v>1159.024803582768</v>
       </c>
       <c r="E8" t="n">
-        <v>1339.790331424607</v>
+        <v>756.4412786993121</v>
       </c>
       <c r="F8" t="n">
-        <v>922.895892954585</v>
+        <v>598.8128425210757</v>
       </c>
       <c r="G8" t="n">
-        <v>509.7331374425881</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H8" t="n">
         <v>185.6500870090788</v>
       </c>
       <c r="I8" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>47.31297010154359</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>318.7636682303378</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M8" t="n">
-        <v>864.7645682749184</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N8" t="n">
-        <v>1392.57585191238</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O8" t="n">
-        <v>1832.615452804709</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P8" t="n">
-        <v>2180.802944936231</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q8" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2327.655591362701</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2161.142036303752</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T8" t="n">
-        <v>2161.142036303752</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U8" t="n">
-        <v>2118.406961705009</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="V8" t="n">
-        <v>2118.406961705009</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="W8" t="n">
-        <v>2118.406961705009</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="X8" t="n">
-        <v>2118.406961705009</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="Y8" t="n">
-        <v>2118.406961705009</v>
+        <v>1937.641433863169</v>
       </c>
     </row>
     <row r="9">
@@ -4877,31 +4877,31 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H9" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I9" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154359</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K9" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L9" t="n">
-        <v>850.6182020620834</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="M9" t="n">
-        <v>1436.116207068685</v>
+        <v>623.643757208308</v>
       </c>
       <c r="N9" t="n">
-        <v>2021.614212075287</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O9" t="n">
-        <v>2365.648505077179</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P9" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.648505077179</v>
@@ -4938,37 +4938,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>90.93651608556127</v>
+        <v>871.8927692732682</v>
       </c>
       <c r="C10" t="n">
-        <v>77.69124027544164</v>
+        <v>701.6876513392574</v>
       </c>
       <c r="D10" t="n">
-        <v>77.69124027544164</v>
+        <v>546.0545382417722</v>
       </c>
       <c r="E10" t="n">
-        <v>77.69124027544164</v>
+        <v>390.4957261009747</v>
       </c>
       <c r="F10" t="n">
-        <v>77.69124027544164</v>
+        <v>233.1697913139477</v>
       </c>
       <c r="G10" t="n">
-        <v>77.69124027544164</v>
+        <v>233.1697913139477</v>
       </c>
       <c r="H10" t="n">
-        <v>77.69124027544164</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="I10" t="n">
-        <v>77.69124027544164</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K10" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L10" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M10" t="n">
         <v>479.5672294235493</v>
@@ -4989,25 +4989,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>745.9439088256454</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>510.2248569938795</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U10" t="n">
-        <v>510.2248569938795</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V10" t="n">
-        <v>510.2248569938795</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W10" t="n">
-        <v>510.2248569938795</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X10" t="n">
-        <v>276.1445347768625</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="Y10" t="n">
-        <v>276.1445347768625</v>
+        <v>948.7599926430961</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2122.796531943815</v>
+        <v>1290.80144222687</v>
       </c>
       <c r="C11" t="n">
-        <v>2007.18358113274</v>
+        <v>897.6259407298003</v>
       </c>
       <c r="D11" t="n">
-        <v>1621.742452349408</v>
+        <v>897.6259407298003</v>
       </c>
       <c r="E11" t="n">
-        <v>1219.158927465952</v>
+        <v>897.6259407298003</v>
       </c>
       <c r="F11" t="n">
-        <v>802.2644889959299</v>
+        <v>480.7315022597781</v>
       </c>
       <c r="G11" t="n">
-        <v>389.3507327464603</v>
+        <v>67.81774601030848</v>
       </c>
       <c r="H11" t="n">
         <v>67.81774601030848</v>
@@ -5041,10 +5041,10 @@
         <v>67.81774601030848</v>
       </c>
       <c r="J11" t="n">
-        <v>233.1804634040193</v>
+        <v>233.1804634040195</v>
       </c>
       <c r="K11" t="n">
-        <v>623.206153937367</v>
+        <v>623.2061539373672</v>
       </c>
       <c r="L11" t="n">
         <v>1155.038447149858</v>
@@ -5074,19 +5074,19 @@
         <v>3168.476692346554</v>
       </c>
       <c r="U11" t="n">
-        <v>2912.743882722155</v>
+        <v>3168.476692346554</v>
       </c>
       <c r="V11" t="n">
-        <v>2912.743882722155</v>
+        <v>2826.369883050073</v>
       </c>
       <c r="W11" t="n">
-        <v>2912.743882722155</v>
+        <v>2455.37084801836</v>
       </c>
       <c r="X11" t="n">
-        <v>2523.291277655212</v>
+        <v>2065.918242951417</v>
       </c>
       <c r="Y11" t="n">
-        <v>2523.291277655212</v>
+        <v>1669.427533872018</v>
       </c>
     </row>
     <row r="12">
@@ -5129,16 +5129,16 @@
         <v>920.5594156057412</v>
       </c>
       <c r="M12" t="n">
-        <v>1139.678486132188</v>
+        <v>1390.711380575403</v>
       </c>
       <c r="N12" t="n">
-        <v>1139.678486132188</v>
+        <v>1390.711380575403</v>
       </c>
       <c r="O12" t="n">
-        <v>1687.265917681488</v>
+        <v>1938.298812124703</v>
       </c>
       <c r="P12" t="n">
-        <v>2117.821412365171</v>
+        <v>2368.854306808385</v>
       </c>
       <c r="Q12" t="n">
         <v>2368.854306808385</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>220.0348840020899</v>
+        <v>666.0711333959252</v>
       </c>
       <c r="C13" t="n">
-        <v>220.0348840020899</v>
+        <v>666.0711333959252</v>
       </c>
       <c r="D13" t="n">
-        <v>220.0348840020899</v>
+        <v>510.4380202984401</v>
       </c>
       <c r="E13" t="n">
-        <v>220.0348840020899</v>
+        <v>354.8792081576426</v>
       </c>
       <c r="F13" t="n">
-        <v>220.0348840020899</v>
+        <v>197.5532733706155</v>
       </c>
       <c r="G13" t="n">
-        <v>220.0348840020899</v>
+        <v>197.5532733706155</v>
       </c>
       <c r="H13" t="n">
-        <v>220.0348840020899</v>
+        <v>197.5532733706155</v>
       </c>
       <c r="I13" t="n">
-        <v>90.29935664178288</v>
+        <v>67.81774601030848</v>
       </c>
       <c r="J13" t="n">
         <v>67.81774601030848</v>
@@ -5226,25 +5226,25 @@
         <v>951.1707592204526</v>
       </c>
       <c r="S13" t="n">
-        <v>750.3011710109262</v>
+        <v>951.1707592204526</v>
       </c>
       <c r="T13" t="n">
-        <v>515.0593507575246</v>
+        <v>951.1707592204526</v>
       </c>
       <c r="U13" t="n">
-        <v>229.6266513174472</v>
+        <v>951.1707592204526</v>
       </c>
       <c r="V13" t="n">
-        <v>220.0348840020899</v>
+        <v>951.1707592204526</v>
       </c>
       <c r="W13" t="n">
-        <v>220.0348840020899</v>
+        <v>951.1707592204526</v>
       </c>
       <c r="X13" t="n">
-        <v>220.0348840020899</v>
+        <v>851.2791520872265</v>
       </c>
       <c r="Y13" t="n">
-        <v>220.0348840020899</v>
+        <v>851.2791520872265</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1300.209465613256</v>
+        <v>1361.847299778186</v>
       </c>
       <c r="C14" t="n">
-        <v>1300.209465613256</v>
+        <v>968.6717982811169</v>
       </c>
       <c r="D14" t="n">
-        <v>1300.209465613256</v>
+        <v>583.2306694977847</v>
       </c>
       <c r="E14" t="n">
-        <v>897.6259407298003</v>
+        <v>480.7315022597781</v>
       </c>
       <c r="F14" t="n">
         <v>480.7315022597781</v>
@@ -5278,10 +5278,10 @@
         <v>67.81774601030848</v>
       </c>
       <c r="J14" t="n">
-        <v>233.1804634040192</v>
+        <v>233.1804634040196</v>
       </c>
       <c r="K14" t="n">
-        <v>623.2061539373669</v>
+        <v>623.2061539373674</v>
       </c>
       <c r="L14" t="n">
         <v>1155.038447149858</v>
@@ -5302,28 +5302,28 @@
         <v>3390.887300515424</v>
       </c>
       <c r="R14" t="n">
-        <v>3390.887300515424</v>
+        <v>3368.535586725676</v>
       </c>
       <c r="S14" t="n">
-        <v>3390.887300515424</v>
+        <v>3368.535586725676</v>
       </c>
       <c r="T14" t="n">
-        <v>3390.887300515424</v>
+        <v>3146.124978556806</v>
       </c>
       <c r="U14" t="n">
-        <v>3199.753369799189</v>
+        <v>2890.392168932407</v>
       </c>
       <c r="V14" t="n">
-        <v>2857.646560502707</v>
+        <v>2548.285359635925</v>
       </c>
       <c r="W14" t="n">
-        <v>2486.647525470995</v>
+        <v>2548.285359635925</v>
       </c>
       <c r="X14" t="n">
-        <v>2097.194920404052</v>
+        <v>2158.832754568982</v>
       </c>
       <c r="Y14" t="n">
-        <v>1700.704211324653</v>
+        <v>1762.342045489583</v>
       </c>
     </row>
     <row r="15">
@@ -5366,13 +5366,13 @@
         <v>408.6419147133896</v>
       </c>
       <c r="M15" t="n">
-        <v>1069.49832838826</v>
+        <v>880.4955902995545</v>
       </c>
       <c r="N15" t="n">
-        <v>1139.678486132188</v>
+        <v>1570.23398081587</v>
       </c>
       <c r="O15" t="n">
-        <v>1687.265917681488</v>
+        <v>2117.821412365171</v>
       </c>
       <c r="P15" t="n">
         <v>2117.821412365171</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1070.049647765344</v>
+        <v>348.5055398623388</v>
       </c>
       <c r="C16" t="n">
-        <v>1011.180608631864</v>
+        <v>348.5055398623388</v>
       </c>
       <c r="D16" t="n">
-        <v>855.5474955343784</v>
+        <v>348.5055398623388</v>
       </c>
       <c r="E16" t="n">
-        <v>699.9886833935809</v>
+        <v>192.9467277215413</v>
       </c>
       <c r="F16" t="n">
-        <v>542.6627486065539</v>
+        <v>192.9467277215413</v>
       </c>
       <c r="G16" t="n">
-        <v>374.5203872030634</v>
+        <v>192.9467277215413</v>
       </c>
       <c r="H16" t="n">
-        <v>220.0348840020899</v>
+        <v>192.9467277215413</v>
       </c>
       <c r="I16" t="n">
-        <v>90.29935664178288</v>
+        <v>67.81774601030848</v>
       </c>
       <c r="J16" t="n">
         <v>67.81774601030848</v>
@@ -5463,25 +5463,25 @@
         <v>1070.049647765344</v>
       </c>
       <c r="S16" t="n">
-        <v>1070.049647765344</v>
+        <v>869.1800595558177</v>
       </c>
       <c r="T16" t="n">
-        <v>1070.049647765344</v>
+        <v>633.9382393024162</v>
       </c>
       <c r="U16" t="n">
-        <v>1070.049647765344</v>
+        <v>348.5055398623388</v>
       </c>
       <c r="V16" t="n">
-        <v>1070.049647765344</v>
+        <v>348.5055398623388</v>
       </c>
       <c r="W16" t="n">
-        <v>1070.049647765344</v>
+        <v>348.5055398623388</v>
       </c>
       <c r="X16" t="n">
-        <v>1070.049647765344</v>
+        <v>348.5055398623388</v>
       </c>
       <c r="Y16" t="n">
-        <v>1070.049647765344</v>
+        <v>348.5055398623388</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1269.229275930393</v>
+        <v>1690.069815711877</v>
       </c>
       <c r="C17" t="n">
-        <v>1269.229275930393</v>
+        <v>1296.894314214808</v>
       </c>
       <c r="D17" t="n">
-        <v>1269.229275930393</v>
+        <v>911.4531854314753</v>
       </c>
       <c r="E17" t="n">
-        <v>866.6457510469377</v>
+        <v>508.8696605480199</v>
       </c>
       <c r="F17" t="n">
-        <v>866.6457510469377</v>
+        <v>508.8696605480199</v>
       </c>
       <c r="G17" t="n">
         <v>508.8696605480199</v>
@@ -5518,7 +5518,7 @@
         <v>270.9233280874832</v>
       </c>
       <c r="K17" t="n">
-        <v>705.3108151130493</v>
+        <v>705.3108151130494</v>
       </c>
       <c r="L17" t="n">
         <v>1292.177839612517</v>
@@ -5527,13 +5527,13 @@
         <v>1942.267504401619</v>
       </c>
       <c r="N17" t="n">
-        <v>2575.851817818621</v>
+        <v>2575.851817818622</v>
       </c>
       <c r="O17" t="n">
         <v>3115.769891361771</v>
       </c>
       <c r="P17" t="n">
-        <v>3549.201349130636</v>
+        <v>3549.201349130635</v>
       </c>
       <c r="Q17" t="n">
         <v>3798.061577393173</v>
@@ -5548,19 +5548,19 @@
         <v>3424.477523585818</v>
       </c>
       <c r="U17" t="n">
-        <v>3168.773180116326</v>
+        <v>3424.477523585818</v>
       </c>
       <c r="V17" t="n">
-        <v>2826.666370819845</v>
+        <v>3082.370714289337</v>
       </c>
       <c r="W17" t="n">
-        <v>2455.667335788132</v>
+        <v>2711.371679257624</v>
       </c>
       <c r="X17" t="n">
-        <v>2066.214730721189</v>
+        <v>2321.919074190681</v>
       </c>
       <c r="Y17" t="n">
-        <v>1669.72402164179</v>
+        <v>2090.564561423274</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>75.96123154786345</v>
       </c>
       <c r="J18" t="n">
-        <v>75.96123154786345</v>
+        <v>219.0418890481681</v>
       </c>
       <c r="K18" t="n">
-        <v>75.96123154786345</v>
+        <v>589.9971470274371</v>
       </c>
       <c r="L18" t="n">
-        <v>75.96123154786345</v>
+        <v>1142.429615858993</v>
       </c>
       <c r="M18" t="n">
-        <v>784.0967018402031</v>
+        <v>1142.429615858993</v>
       </c>
       <c r="N18" t="n">
-        <v>1522.365484919429</v>
+        <v>1142.429615858993</v>
       </c>
       <c r="O18" t="n">
-        <v>2114.348744482021</v>
+        <v>1611.238359252428</v>
       </c>
       <c r="P18" t="n">
-        <v>2352.277072610002</v>
+        <v>2077.425419922113</v>
       </c>
       <c r="Q18" t="n">
         <v>2352.277072610002</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>704.3273100457843</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="C19" t="n">
-        <v>704.3273100457843</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="D19" t="n">
-        <v>704.3273100457843</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="E19" t="n">
-        <v>690.4689562689907</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="F19" t="n">
-        <v>533.1430214819636</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="G19" t="n">
-        <v>365.1602717923346</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="H19" t="n">
-        <v>212.0938618291478</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="I19" t="n">
-        <v>87.15829400933012</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="J19" t="n">
         <v>75.96123154786345</v>
@@ -5679,13 +5679,13 @@
         <v>188.6896288950475</v>
       </c>
       <c r="L19" t="n">
-        <v>392.350128542232</v>
+        <v>392.3501285422321</v>
       </c>
       <c r="M19" t="n">
-        <v>620.3235645955795</v>
+        <v>620.3235645955796</v>
       </c>
       <c r="N19" t="n">
-        <v>844.2039549289402</v>
+        <v>844.2039549289403</v>
       </c>
       <c r="O19" t="n">
         <v>1044.49322140544</v>
@@ -5694,31 +5694,31 @@
         <v>1196.529419371398</v>
       </c>
       <c r="Q19" t="n">
-        <v>1222.217555045145</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="R19" t="n">
-        <v>1222.217555045145</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="S19" t="n">
-        <v>1222.217555045145</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="T19" t="n">
-        <v>987.6577121146066</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="U19" t="n">
-        <v>987.6577121146066</v>
+        <v>936.7935616985517</v>
       </c>
       <c r="V19" t="n">
-        <v>987.6577121146066</v>
+        <v>670.8142165193759</v>
       </c>
       <c r="W19" t="n">
-        <v>704.3273100457843</v>
+        <v>387.4838144505536</v>
       </c>
       <c r="X19" t="n">
-        <v>704.3273100457843</v>
+        <v>153.4034922335366</v>
       </c>
       <c r="Y19" t="n">
-        <v>704.3273100457843</v>
+        <v>75.96123154786345</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1269.229275930393</v>
+        <v>2134.081054711698</v>
       </c>
       <c r="C20" t="n">
-        <v>876.0537744333237</v>
+        <v>1740.905553214629</v>
       </c>
       <c r="D20" t="n">
-        <v>876.0537744333237</v>
+        <v>1740.905553214629</v>
       </c>
       <c r="E20" t="n">
-        <v>876.0537744333237</v>
+        <v>1338.322028331173</v>
       </c>
       <c r="F20" t="n">
-        <v>876.0537744333237</v>
+        <v>921.4275898611513</v>
       </c>
       <c r="G20" t="n">
         <v>508.8696605480199</v>
@@ -5752,19 +5752,19 @@
         <v>75.96123154786345</v>
       </c>
       <c r="J20" t="n">
-        <v>270.9233280874837</v>
+        <v>270.9233280874835</v>
       </c>
       <c r="K20" t="n">
-        <v>705.31081511305</v>
+        <v>705.3108151130497</v>
       </c>
       <c r="L20" t="n">
-        <v>1292.177839612518</v>
+        <v>1292.177839612517</v>
       </c>
       <c r="M20" t="n">
         <v>1942.267504401619</v>
       </c>
       <c r="N20" t="n">
-        <v>2575.851817818622</v>
+        <v>2575.851817818621</v>
       </c>
       <c r="O20" t="n">
         <v>3115.769891361771</v>
@@ -5779,25 +5779,25 @@
         <v>3798.061577393173</v>
       </c>
       <c r="S20" t="n">
-        <v>3645.330499340868</v>
+        <v>3691.51814960115</v>
       </c>
       <c r="T20" t="n">
-        <v>3424.477523585818</v>
+        <v>3691.51814960115</v>
       </c>
       <c r="U20" t="n">
-        <v>3168.773180116326</v>
+        <v>3691.51814960115</v>
       </c>
       <c r="V20" t="n">
-        <v>2826.666370819845</v>
+        <v>3691.51814960115</v>
       </c>
       <c r="W20" t="n">
-        <v>2455.667335788132</v>
+        <v>3320.519114569438</v>
       </c>
       <c r="X20" t="n">
-        <v>2066.214730721189</v>
+        <v>2931.066509502494</v>
       </c>
       <c r="Y20" t="n">
-        <v>1669.72402164179</v>
+        <v>2534.575800423095</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>75.96123154786345</v>
       </c>
       <c r="J21" t="n">
-        <v>75.96123154786345</v>
+        <v>95.86737287901099</v>
       </c>
       <c r="K21" t="n">
-        <v>446.9164895271324</v>
+        <v>466.8226308582799</v>
       </c>
       <c r="L21" t="n">
-        <v>999.3489583586883</v>
+        <v>1019.255099689836</v>
       </c>
       <c r="M21" t="n">
-        <v>1707.484428651028</v>
+        <v>1019.255099689836</v>
       </c>
       <c r="N21" t="n">
-        <v>1707.484428651028</v>
+        <v>1019.255099689836</v>
       </c>
       <c r="O21" t="n">
-        <v>2299.46768821362</v>
+        <v>1611.238359252428</v>
       </c>
       <c r="P21" t="n">
-        <v>2352.277072610002</v>
+        <v>2077.425419922113</v>
       </c>
       <c r="Q21" t="n">
         <v>2352.277072610002</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>704.8068307593063</v>
+        <v>231.5943446453487</v>
       </c>
       <c r="C22" t="n">
-        <v>534.6017128252955</v>
+        <v>231.5943446453487</v>
       </c>
       <c r="D22" t="n">
-        <v>534.6017128252955</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="E22" t="n">
-        <v>534.6017128252955</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="F22" t="n">
-        <v>397.0103912006792</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="G22" t="n">
-        <v>229.0276415110502</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="H22" t="n">
         <v>75.96123154786345</v>
@@ -5940,22 +5940,22 @@
         <v>1222.217555045146</v>
       </c>
       <c r="T22" t="n">
-        <v>1222.217555045146</v>
+        <v>1159.418740083618</v>
       </c>
       <c r="U22" t="n">
-        <v>1222.217555045146</v>
+        <v>873.9947467370235</v>
       </c>
       <c r="V22" t="n">
-        <v>1222.217555045146</v>
+        <v>873.9947467370235</v>
       </c>
       <c r="W22" t="n">
-        <v>938.8871529763233</v>
+        <v>873.9947467370235</v>
       </c>
       <c r="X22" t="n">
-        <v>704.8068307593063</v>
+        <v>639.9144245200066</v>
       </c>
       <c r="Y22" t="n">
-        <v>704.8068307593063</v>
+        <v>416.80236333665</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1677.66469745219</v>
+        <v>1789.07538005752</v>
       </c>
       <c r="C23" t="n">
-        <v>1677.66469745219</v>
+        <v>1395.899878560451</v>
       </c>
       <c r="D23" t="n">
-        <v>1677.66469745219</v>
+        <v>1010.458749777118</v>
       </c>
       <c r="E23" t="n">
-        <v>1275.081172568735</v>
+        <v>607.8752248936629</v>
       </c>
       <c r="F23" t="n">
-        <v>858.1867340987125</v>
+        <v>190.9807864236407</v>
       </c>
       <c r="G23" t="n">
-        <v>445.628804785581</v>
+        <v>190.9807864236407</v>
       </c>
       <c r="H23" t="n">
-        <v>127.7399306612018</v>
+        <v>190.9807864236407</v>
       </c>
       <c r="I23" t="n">
-        <v>75.96123154786348</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="J23" t="n">
         <v>270.9233280874836</v>
@@ -6001,40 +6001,40 @@
         <v>1942.267504401619</v>
       </c>
       <c r="N23" t="n">
-        <v>2575.851817818622</v>
+        <v>2575.851817818621</v>
       </c>
       <c r="O23" t="n">
         <v>3115.769891361771</v>
       </c>
       <c r="P23" t="n">
-        <v>3549.201349130636</v>
+        <v>3549.201349130635</v>
       </c>
       <c r="Q23" t="n">
-        <v>3798.061577393174</v>
+        <v>3798.061577393172</v>
       </c>
       <c r="R23" t="n">
-        <v>3798.061577393174</v>
+        <v>3798.061577393172</v>
       </c>
       <c r="S23" t="n">
-        <v>3798.061577393174</v>
+        <v>3794.177568436283</v>
       </c>
       <c r="T23" t="n">
-        <v>3577.208601638124</v>
+        <v>3573.324592681233</v>
       </c>
       <c r="U23" t="n">
-        <v>3577.208601638124</v>
+        <v>3317.620249211741</v>
       </c>
       <c r="V23" t="n">
-        <v>3235.101792341642</v>
+        <v>2975.513439915259</v>
       </c>
       <c r="W23" t="n">
-        <v>2864.10275730993</v>
+        <v>2975.513439915259</v>
       </c>
       <c r="X23" t="n">
-        <v>2474.650152242986</v>
+        <v>2586.060834848316</v>
       </c>
       <c r="Y23" t="n">
-        <v>2078.159443163587</v>
+        <v>2189.570125768917</v>
       </c>
     </row>
     <row r="24">
@@ -6056,37 +6056,37 @@
         <v>443.5466645234808</v>
       </c>
       <c r="F24" t="n">
-        <v>319.1148584066127</v>
+        <v>319.1148584066126</v>
       </c>
       <c r="G24" t="n">
-        <v>199.3786510244078</v>
+        <v>199.3786510244077</v>
       </c>
       <c r="H24" t="n">
-        <v>114.2066312133391</v>
+        <v>114.206631213339</v>
       </c>
       <c r="I24" t="n">
-        <v>75.96123154786348</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="J24" t="n">
-        <v>75.96123154786348</v>
+        <v>219.0418890481681</v>
       </c>
       <c r="K24" t="n">
-        <v>446.9164895271324</v>
+        <v>589.997147027437</v>
       </c>
       <c r="L24" t="n">
-        <v>999.3489583586882</v>
+        <v>1142.429615858993</v>
       </c>
       <c r="M24" t="n">
-        <v>1707.484428651028</v>
+        <v>1142.429615858993</v>
       </c>
       <c r="N24" t="n">
-        <v>1760.29381304741</v>
+        <v>1142.429615858993</v>
       </c>
       <c r="O24" t="n">
-        <v>2352.277072610002</v>
+        <v>1611.238359252428</v>
       </c>
       <c r="P24" t="n">
-        <v>2352.277072610002</v>
+        <v>2077.425419922113</v>
       </c>
       <c r="Q24" t="n">
         <v>2352.277072610002</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2651.805253895891</v>
+        <v>152.9239715200144</v>
       </c>
       <c r="C25" t="n">
-        <v>2651.805253895891</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="D25" t="n">
-        <v>2651.805253895891</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="E25" t="n">
-        <v>2651.805253895891</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="F25" t="n">
-        <v>2651.805253895891</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="G25" t="n">
-        <v>2651.805253895891</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="H25" t="n">
-        <v>2651.805253895891</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="I25" t="n">
-        <v>2651.805253895891</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="J25" t="n">
-        <v>2651.805253895891</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="K25" t="n">
-        <v>2764.533651243075</v>
+        <v>188.6896288950475</v>
       </c>
       <c r="L25" t="n">
-        <v>2968.19415089026</v>
+        <v>392.350128542232</v>
       </c>
       <c r="M25" t="n">
-        <v>3196.167586943608</v>
+        <v>620.3235645955795</v>
       </c>
       <c r="N25" t="n">
-        <v>3420.047977276969</v>
+        <v>844.2039549289402</v>
       </c>
       <c r="O25" t="n">
-        <v>3620.337243753469</v>
+        <v>1044.49322140544</v>
       </c>
       <c r="P25" t="n">
-        <v>3772.373441719426</v>
+        <v>1196.529419371398</v>
       </c>
       <c r="Q25" t="n">
-        <v>3798.061577393174</v>
+        <v>1222.217555045145</v>
       </c>
       <c r="R25" t="n">
-        <v>3686.359411909727</v>
+        <v>1222.217555045145</v>
       </c>
       <c r="S25" t="n">
-        <v>3488.271420568132</v>
+        <v>1222.217555045145</v>
       </c>
       <c r="T25" t="n">
-        <v>3253.711577637594</v>
+        <v>987.6577121146066</v>
       </c>
       <c r="U25" t="n">
-        <v>2968.287584290999</v>
+        <v>702.2337187680125</v>
       </c>
       <c r="V25" t="n">
-        <v>2702.308239111824</v>
+        <v>436.2543735888368</v>
       </c>
       <c r="W25" t="n">
-        <v>2651.805253895891</v>
+        <v>152.9239715200144</v>
       </c>
       <c r="X25" t="n">
-        <v>2651.805253895891</v>
+        <v>152.9239715200144</v>
       </c>
       <c r="Y25" t="n">
-        <v>2651.805253895891</v>
+        <v>152.9239715200144</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2404.502628619254</v>
+        <v>2134.081054711698</v>
       </c>
       <c r="C26" t="n">
-        <v>2011.327127122184</v>
+        <v>1740.905553214629</v>
       </c>
       <c r="D26" t="n">
-        <v>1625.885998338852</v>
+        <v>1740.905553214629</v>
       </c>
       <c r="E26" t="n">
-        <v>1223.302473455396</v>
+        <v>1338.322028331173</v>
       </c>
       <c r="F26" t="n">
-        <v>806.4080349853741</v>
+        <v>921.4275898611513</v>
       </c>
       <c r="G26" t="n">
-        <v>393.8501056722426</v>
+        <v>508.8696605480199</v>
       </c>
       <c r="H26" t="n">
-        <v>75.96123154786345</v>
+        <v>190.9807864236407</v>
       </c>
       <c r="I26" t="n">
         <v>75.96123154786345</v>
       </c>
       <c r="J26" t="n">
-        <v>270.9233280874832</v>
+        <v>270.9233280874836</v>
       </c>
       <c r="K26" t="n">
-        <v>705.3108151130496</v>
+        <v>705.3108151130497</v>
       </c>
       <c r="L26" t="n">
         <v>1292.177839612517</v>
@@ -6244,34 +6244,34 @@
         <v>3115.769891361771</v>
       </c>
       <c r="P26" t="n">
-        <v>3549.201349130635</v>
+        <v>3549.201349130636</v>
       </c>
       <c r="Q26" t="n">
-        <v>3798.061577393172</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="R26" t="n">
-        <v>3798.061577393172</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="S26" t="n">
-        <v>3678.045402634592</v>
+        <v>3645.330499340868</v>
       </c>
       <c r="T26" t="n">
-        <v>3457.192426879542</v>
+        <v>3424.477523585818</v>
       </c>
       <c r="U26" t="n">
-        <v>3201.48808341005</v>
+        <v>3168.773180116326</v>
       </c>
       <c r="V26" t="n">
-        <v>3201.48808341005</v>
+        <v>3168.773180116326</v>
       </c>
       <c r="W26" t="n">
-        <v>3201.48808341005</v>
+        <v>2931.066509502494</v>
       </c>
       <c r="X26" t="n">
-        <v>3201.48808341005</v>
+        <v>2931.066509502494</v>
       </c>
       <c r="Y26" t="n">
-        <v>2804.99737433065</v>
+        <v>2534.575800423095</v>
       </c>
     </row>
     <row r="27">
@@ -6311,7 +6311,7 @@
         <v>75.96123154786345</v>
       </c>
       <c r="L27" t="n">
-        <v>313.8895596758445</v>
+        <v>313.8895596758443</v>
       </c>
       <c r="M27" t="n">
         <v>1022.025029968184</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>519.5988120680048</v>
+        <v>504.1073183454464</v>
       </c>
       <c r="C28" t="n">
-        <v>349.393694133994</v>
+        <v>333.9022004114356</v>
       </c>
       <c r="D28" t="n">
-        <v>349.393694133994</v>
+        <v>178.2690873139504</v>
       </c>
       <c r="E28" t="n">
-        <v>349.393694133994</v>
+        <v>178.2690873139504</v>
       </c>
       <c r="F28" t="n">
-        <v>349.393694133994</v>
+        <v>178.2690873139504</v>
       </c>
       <c r="G28" t="n">
-        <v>181.410944444365</v>
+        <v>178.2690873139504</v>
       </c>
       <c r="H28" t="n">
-        <v>75.96123154786345</v>
+        <v>178.2690873139504</v>
       </c>
       <c r="I28" t="n">
         <v>75.96123154786345</v>
@@ -6390,13 +6390,13 @@
         <v>188.6896288950475</v>
       </c>
       <c r="L28" t="n">
-        <v>392.350128542232</v>
+        <v>392.3501285422321</v>
       </c>
       <c r="M28" t="n">
-        <v>620.3235645955795</v>
+        <v>620.3235645955796</v>
       </c>
       <c r="N28" t="n">
-        <v>844.2039549289402</v>
+        <v>844.2039549289403</v>
       </c>
       <c r="O28" t="n">
         <v>1044.49322140544</v>
@@ -6405,31 +6405,31 @@
         <v>1196.529419371398</v>
       </c>
       <c r="Q28" t="n">
-        <v>1222.217555045145</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="R28" t="n">
-        <v>1222.217555045145</v>
+        <v>1110.515389561699</v>
       </c>
       <c r="S28" t="n">
-        <v>1222.217555045145</v>
+        <v>912.4273982201044</v>
       </c>
       <c r="T28" t="n">
-        <v>1222.217555045145</v>
+        <v>912.4273982201044</v>
       </c>
       <c r="U28" t="n">
-        <v>1222.217555045145</v>
+        <v>912.4273982201044</v>
       </c>
       <c r="V28" t="n">
-        <v>1222.217555045145</v>
+        <v>912.4273982201044</v>
       </c>
       <c r="W28" t="n">
-        <v>938.887152976323</v>
+        <v>912.4273982201044</v>
       </c>
       <c r="X28" t="n">
-        <v>704.8068307593061</v>
+        <v>912.4273982201044</v>
       </c>
       <c r="Y28" t="n">
-        <v>704.8068307593061</v>
+        <v>689.3153370367477</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1674.055825181743</v>
+        <v>2086.613754494874</v>
       </c>
       <c r="C29" t="n">
-        <v>1280.880323684673</v>
+        <v>1693.438252997805</v>
       </c>
       <c r="D29" t="n">
-        <v>895.4391949013411</v>
+        <v>1307.997124214473</v>
       </c>
       <c r="E29" t="n">
-        <v>492.8556700178857</v>
+        <v>905.4135993310172</v>
       </c>
       <c r="F29" t="n">
-        <v>75.96123154786345</v>
+        <v>488.5191608609949</v>
       </c>
       <c r="G29" t="n">
         <v>75.96123154786345</v>
@@ -6463,10 +6463,10 @@
         <v>75.96123154786345</v>
       </c>
       <c r="J29" t="n">
-        <v>270.9233280874835</v>
+        <v>270.9233280874836</v>
       </c>
       <c r="K29" t="n">
-        <v>705.3108151130498</v>
+        <v>705.3108151130497</v>
       </c>
       <c r="L29" t="n">
         <v>1292.177839612517</v>
@@ -6481,34 +6481,34 @@
         <v>3115.769891361771</v>
       </c>
       <c r="P29" t="n">
-        <v>3549.201349130635</v>
+        <v>3549.201349130636</v>
       </c>
       <c r="Q29" t="n">
-        <v>3798.061577393172</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="R29" t="n">
-        <v>3798.061577393172</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="S29" t="n">
-        <v>3798.061577393172</v>
+        <v>3645.330499340868</v>
       </c>
       <c r="T29" t="n">
-        <v>3798.061577393172</v>
+        <v>3424.477523585818</v>
       </c>
       <c r="U29" t="n">
-        <v>3573.599729367676</v>
+        <v>3273.051814352613</v>
       </c>
       <c r="V29" t="n">
-        <v>3231.492920071194</v>
+        <v>3273.051814352613</v>
       </c>
       <c r="W29" t="n">
-        <v>2860.493885039482</v>
+        <v>3273.051814352613</v>
       </c>
       <c r="X29" t="n">
-        <v>2471.041279972539</v>
+        <v>2883.59920928567</v>
       </c>
       <c r="Y29" t="n">
-        <v>2074.55057089314</v>
+        <v>2487.108500206271</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2306.52085801419</v>
+        <v>860.7363532310205</v>
       </c>
       <c r="C30" t="n">
-        <v>2155.866627574282</v>
+        <v>710.0821227911127</v>
       </c>
       <c r="D30" t="n">
-        <v>2025.777660195763</v>
+        <v>579.9931554125931</v>
       </c>
       <c r="E30" t="n">
-        <v>1889.33116930665</v>
+        <v>443.5466645234808</v>
       </c>
       <c r="F30" t="n">
-        <v>1764.899363189782</v>
+        <v>319.1148584066126</v>
       </c>
       <c r="G30" t="n">
-        <v>1645.163155807577</v>
+        <v>199.3786510244077</v>
       </c>
       <c r="H30" t="n">
-        <v>1559.991135996509</v>
+        <v>114.206631213339</v>
       </c>
       <c r="I30" t="n">
-        <v>1521.745736331033</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="J30" t="n">
-        <v>1521.745736331033</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="K30" t="n">
-        <v>1521.745736331033</v>
+        <v>446.9164895271324</v>
       </c>
       <c r="L30" t="n">
-        <v>1759.674064459015</v>
+        <v>999.3489583586882</v>
       </c>
       <c r="M30" t="n">
-        <v>2467.809534751354</v>
+        <v>1294.106752377725</v>
       </c>
       <c r="N30" t="n">
-        <v>3206.07831783058</v>
+        <v>1294.106752377725</v>
       </c>
       <c r="O30" t="n">
-        <v>3798.061577393172</v>
+        <v>1886.090011940317</v>
       </c>
       <c r="P30" t="n">
-        <v>3798.061577393172</v>
+        <v>2352.277072610002</v>
       </c>
       <c r="Q30" t="n">
-        <v>3798.061577393172</v>
+        <v>2352.277072610002</v>
       </c>
       <c r="R30" t="n">
-        <v>3794.236775028932</v>
+        <v>2348.452270245762</v>
       </c>
       <c r="S30" t="n">
-        <v>3665.317021885013</v>
+        <v>2219.532517101843</v>
       </c>
       <c r="T30" t="n">
-        <v>3489.637587679142</v>
+        <v>2043.853082895972</v>
       </c>
       <c r="U30" t="n">
-        <v>3279.595734525279</v>
+        <v>1833.811229742109</v>
       </c>
       <c r="V30" t="n">
-        <v>3057.055732896346</v>
+        <v>1611.271228113176</v>
       </c>
       <c r="W30" t="n">
-        <v>2826.938487029633</v>
+        <v>1381.153982246463</v>
       </c>
       <c r="X30" t="n">
-        <v>2637.631409379644</v>
+        <v>1191.846904596475</v>
       </c>
       <c r="Y30" t="n">
-        <v>2458.317192455151</v>
+        <v>1012.532687671982</v>
       </c>
     </row>
     <row r="31">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>519.5988120680048</v>
+        <v>387.4838144505536</v>
       </c>
       <c r="C31" t="n">
-        <v>519.5988120680048</v>
+        <v>387.4838144505536</v>
       </c>
       <c r="D31" t="n">
-        <v>519.5988120680048</v>
+        <v>387.4838144505536</v>
       </c>
       <c r="E31" t="n">
-        <v>519.5988120680048</v>
+        <v>387.4838144505536</v>
       </c>
       <c r="F31" t="n">
-        <v>519.5988120680048</v>
+        <v>387.4838144505536</v>
       </c>
       <c r="G31" t="n">
-        <v>353.9632093308679</v>
+        <v>229.0276415110502</v>
       </c>
       <c r="H31" t="n">
-        <v>200.8967993676811</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="I31" t="n">
         <v>75.96123154786345</v>
@@ -6627,13 +6627,13 @@
         <v>188.6896288950475</v>
       </c>
       <c r="L31" t="n">
-        <v>392.350128542232</v>
+        <v>392.3501285422321</v>
       </c>
       <c r="M31" t="n">
-        <v>620.3235645955795</v>
+        <v>620.3235645955796</v>
       </c>
       <c r="N31" t="n">
-        <v>844.2039549289402</v>
+        <v>844.2039549289403</v>
       </c>
       <c r="O31" t="n">
         <v>1044.49322140544</v>
@@ -6642,31 +6642,31 @@
         <v>1196.529419371398</v>
       </c>
       <c r="Q31" t="n">
-        <v>1222.217555045145</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="R31" t="n">
-        <v>1222.217555045145</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="S31" t="n">
-        <v>1222.217555045145</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="T31" t="n">
-        <v>1222.217555045145</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="U31" t="n">
-        <v>1222.217555045145</v>
+        <v>936.7935616985517</v>
       </c>
       <c r="V31" t="n">
-        <v>1222.217555045145</v>
+        <v>670.8142165193759</v>
       </c>
       <c r="W31" t="n">
-        <v>938.887152976323</v>
+        <v>387.4838144505536</v>
       </c>
       <c r="X31" t="n">
-        <v>704.8068307593061</v>
+        <v>387.4838144505536</v>
       </c>
       <c r="Y31" t="n">
-        <v>704.8068307593061</v>
+        <v>387.4838144505536</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1288.614696398411</v>
+        <v>2086.613754494874</v>
       </c>
       <c r="C32" t="n">
-        <v>895.4391949013411</v>
+        <v>1693.438252997805</v>
       </c>
       <c r="D32" t="n">
-        <v>895.4391949013411</v>
+        <v>1307.997124214473</v>
       </c>
       <c r="E32" t="n">
-        <v>492.8556700178857</v>
+        <v>905.4135993310172</v>
       </c>
       <c r="F32" t="n">
-        <v>75.96123154786345</v>
+        <v>488.5191608609949</v>
       </c>
       <c r="G32" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="H32" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="I32" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="J32" t="n">
-        <v>270.9233280874831</v>
+        <v>270.9233280874837</v>
       </c>
       <c r="K32" t="n">
-        <v>705.3108151130492</v>
+        <v>705.3108151130496</v>
       </c>
       <c r="L32" t="n">
         <v>1292.177839612517</v>
@@ -6718,34 +6718,34 @@
         <v>3115.769891361771</v>
       </c>
       <c r="P32" t="n">
-        <v>3549.201349130635</v>
+        <v>3549.201349130636</v>
       </c>
       <c r="Q32" t="n">
-        <v>3798.061577393172</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="R32" t="n">
-        <v>3798.061577393172</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="S32" t="n">
-        <v>3645.330499340868</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="T32" t="n">
-        <v>3443.862944053836</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="U32" t="n">
-        <v>3188.158600584344</v>
+        <v>3644.050849384326</v>
       </c>
       <c r="V32" t="n">
-        <v>2846.051791287862</v>
+        <v>3644.050849384326</v>
       </c>
       <c r="W32" t="n">
-        <v>2475.05275625615</v>
+        <v>3273.051814352613</v>
       </c>
       <c r="X32" t="n">
-        <v>2085.600151189206</v>
+        <v>2883.59920928567</v>
       </c>
       <c r="Y32" t="n">
-        <v>1689.109442109808</v>
+        <v>2487.108500206271</v>
       </c>
     </row>
     <row r="33">
@@ -6776,25 +6776,25 @@
         <v>114.206631213339</v>
       </c>
       <c r="I33" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="J33" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="K33" t="n">
-        <v>75.96123154786345</v>
+        <v>446.9164895271324</v>
       </c>
       <c r="L33" t="n">
-        <v>313.8895596758445</v>
+        <v>999.3489583586882</v>
       </c>
       <c r="M33" t="n">
-        <v>1022.025029968184</v>
+        <v>999.3489583586882</v>
       </c>
       <c r="N33" t="n">
-        <v>1760.29381304741</v>
+        <v>1294.106752377725</v>
       </c>
       <c r="O33" t="n">
-        <v>2352.277072610002</v>
+        <v>1886.090011940317</v>
       </c>
       <c r="P33" t="n">
         <v>2352.277072610002</v>
@@ -6834,43 +6834,43 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>557.3582747201569</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="C34" t="n">
-        <v>387.1531567861462</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="D34" t="n">
-        <v>231.520043688661</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="E34" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="F34" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="G34" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="H34" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="I34" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="J34" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="K34" t="n">
         <v>188.6896288950475</v>
       </c>
       <c r="L34" t="n">
-        <v>392.350128542232</v>
+        <v>392.3501285422321</v>
       </c>
       <c r="M34" t="n">
-        <v>620.3235645955795</v>
+        <v>620.3235645955796</v>
       </c>
       <c r="N34" t="n">
-        <v>844.2039549289402</v>
+        <v>844.2039549289403</v>
       </c>
       <c r="O34" t="n">
         <v>1044.49322140544</v>
@@ -6879,31 +6879,31 @@
         <v>1196.529419371398</v>
       </c>
       <c r="Q34" t="n">
-        <v>1222.217555045145</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="R34" t="n">
-        <v>1222.217555045145</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="S34" t="n">
-        <v>1027.990286758052</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="T34" t="n">
-        <v>1027.990286758052</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="U34" t="n">
-        <v>742.5662934114582</v>
+        <v>936.7935616985517</v>
       </c>
       <c r="V34" t="n">
-        <v>742.5662934114582</v>
+        <v>670.8142165193759</v>
       </c>
       <c r="W34" t="n">
-        <v>742.5662934114582</v>
+        <v>387.4838144505536</v>
       </c>
       <c r="X34" t="n">
-        <v>742.5662934114582</v>
+        <v>153.4034922335366</v>
       </c>
       <c r="Y34" t="n">
-        <v>742.5662934114582</v>
+        <v>153.4034922335366</v>
       </c>
     </row>
     <row r="35">
@@ -6913,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1717.186616241676</v>
+        <v>2086.613754494874</v>
       </c>
       <c r="C35" t="n">
-        <v>1324.011114744607</v>
+        <v>1693.438252997805</v>
       </c>
       <c r="D35" t="n">
-        <v>1324.011114744607</v>
+        <v>1307.997124214473</v>
       </c>
       <c r="E35" t="n">
-        <v>921.4275898611513</v>
+        <v>905.4135993310172</v>
       </c>
       <c r="F35" t="n">
-        <v>921.4275898611513</v>
+        <v>488.5191608609949</v>
       </c>
       <c r="G35" t="n">
-        <v>508.8696605480199</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="H35" t="n">
-        <v>190.9807864236407</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="I35" t="n">
         <v>75.96123154786346</v>
       </c>
       <c r="J35" t="n">
-        <v>270.9233280874836</v>
+        <v>270.9233280874835</v>
       </c>
       <c r="K35" t="n">
         <v>705.3108151130497</v>
       </c>
       <c r="L35" t="n">
-        <v>1292.177839612518</v>
+        <v>1292.177839612517</v>
       </c>
       <c r="M35" t="n">
-        <v>1942.26750440162</v>
+        <v>1942.267504401619</v>
       </c>
       <c r="N35" t="n">
         <v>2575.851817818622</v>
@@ -6964,25 +6964,25 @@
         <v>3798.061577393173</v>
       </c>
       <c r="S35" t="n">
-        <v>3645.330499340869</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="T35" t="n">
-        <v>3424.477523585819</v>
+        <v>3644.050849384326</v>
       </c>
       <c r="U35" t="n">
-        <v>3168.773180116326</v>
+        <v>3644.050849384326</v>
       </c>
       <c r="V35" t="n">
-        <v>2826.666370819845</v>
+        <v>3644.050849384326</v>
       </c>
       <c r="W35" t="n">
-        <v>2503.129930388019</v>
+        <v>3273.051814352613</v>
       </c>
       <c r="X35" t="n">
-        <v>2113.677325321075</v>
+        <v>2883.59920928567</v>
       </c>
       <c r="Y35" t="n">
-        <v>1717.186616241676</v>
+        <v>2487.108500206271</v>
       </c>
     </row>
     <row r="36">
@@ -7019,22 +7019,22 @@
         <v>75.96123154786346</v>
       </c>
       <c r="K36" t="n">
-        <v>75.96123154786346</v>
+        <v>446.9164895271324</v>
       </c>
       <c r="L36" t="n">
-        <v>628.3937003794192</v>
+        <v>999.3489583586883</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.529170671759</v>
+        <v>1611.238359252428</v>
       </c>
       <c r="N36" t="n">
-        <v>2074.797953750985</v>
+        <v>1611.238359252428</v>
       </c>
       <c r="O36" t="n">
-        <v>2352.277072610002</v>
+        <v>1611.238359252428</v>
       </c>
       <c r="P36" t="n">
-        <v>2352.277072610002</v>
+        <v>2077.425419922113</v>
       </c>
       <c r="Q36" t="n">
         <v>2352.277072610002</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>294.3931596068766</v>
+        <v>321.5108207264103</v>
       </c>
       <c r="C37" t="n">
-        <v>124.1880416728658</v>
+        <v>321.5108207264103</v>
       </c>
       <c r="D37" t="n">
-        <v>75.96123154786346</v>
+        <v>321.5108207264103</v>
       </c>
       <c r="E37" t="n">
-        <v>75.96123154786346</v>
+        <v>233.2871663348905</v>
       </c>
       <c r="F37" t="n">
         <v>75.96123154786346</v>
@@ -7101,13 +7101,13 @@
         <v>188.6896288950475</v>
       </c>
       <c r="L37" t="n">
-        <v>392.350128542232</v>
+        <v>392.3501285422321</v>
       </c>
       <c r="M37" t="n">
-        <v>620.3235645955795</v>
+        <v>620.3235645955796</v>
       </c>
       <c r="N37" t="n">
-        <v>844.2039549289402</v>
+        <v>844.2039549289403</v>
       </c>
       <c r="O37" t="n">
         <v>1044.49322140544</v>
@@ -7116,31 +7116,31 @@
         <v>1196.529419371398</v>
       </c>
       <c r="Q37" t="n">
-        <v>1222.217555045145</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="R37" t="n">
-        <v>1222.217555045145</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="S37" t="n">
-        <v>1222.217555045145</v>
+        <v>1024.129563703551</v>
       </c>
       <c r="T37" t="n">
-        <v>1222.217555045145</v>
+        <v>1024.129563703551</v>
       </c>
       <c r="U37" t="n">
-        <v>936.7935616985515</v>
+        <v>1024.129563703551</v>
       </c>
       <c r="V37" t="n">
-        <v>936.7935616985515</v>
+        <v>1024.129563703551</v>
       </c>
       <c r="W37" t="n">
-        <v>936.7935616985515</v>
+        <v>740.7991616347285</v>
       </c>
       <c r="X37" t="n">
-        <v>702.7132394815345</v>
+        <v>506.7188394177116</v>
       </c>
       <c r="Y37" t="n">
-        <v>479.6011782981778</v>
+        <v>506.7188394177116</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1674.055825181743</v>
+        <v>1792.95938901441</v>
       </c>
       <c r="C38" t="n">
-        <v>1280.880323684673</v>
+        <v>1399.783887517341</v>
       </c>
       <c r="D38" t="n">
-        <v>895.4391949013411</v>
+        <v>1014.342758734009</v>
       </c>
       <c r="E38" t="n">
-        <v>492.8556700178857</v>
+        <v>611.7592338505531</v>
       </c>
       <c r="F38" t="n">
-        <v>75.96123154786345</v>
+        <v>194.8647953805308</v>
       </c>
       <c r="G38" t="n">
-        <v>75.96123154786345</v>
+        <v>190.9807864236407</v>
       </c>
       <c r="H38" t="n">
-        <v>75.96123154786345</v>
+        <v>190.9807864236407</v>
       </c>
       <c r="I38" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="J38" t="n">
-        <v>270.9233280874837</v>
+        <v>270.9233280874835</v>
       </c>
       <c r="K38" t="n">
-        <v>705.31081511305</v>
+        <v>705.3108151130497</v>
       </c>
       <c r="L38" t="n">
-        <v>1292.177839612518</v>
+        <v>1292.177839612517</v>
       </c>
       <c r="M38" t="n">
         <v>1942.267504401619</v>
@@ -7192,7 +7192,7 @@
         <v>3115.769891361771</v>
       </c>
       <c r="P38" t="n">
-        <v>3549.201349130635</v>
+        <v>3549.201349130636</v>
       </c>
       <c r="Q38" t="n">
         <v>3798.061577393173</v>
@@ -7201,25 +7201,25 @@
         <v>3798.061577393173</v>
       </c>
       <c r="S38" t="n">
-        <v>3645.330499340868</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="T38" t="n">
-        <v>3424.477523585818</v>
+        <v>3577.208601638123</v>
       </c>
       <c r="U38" t="n">
-        <v>3184.147124300733</v>
+        <v>3321.504258168631</v>
       </c>
       <c r="V38" t="n">
-        <v>2842.040315004251</v>
+        <v>2979.39744887215</v>
       </c>
       <c r="W38" t="n">
-        <v>2471.041279972539</v>
+        <v>2979.39744887215</v>
       </c>
       <c r="X38" t="n">
-        <v>2471.041279972539</v>
+        <v>2589.944843805206</v>
       </c>
       <c r="Y38" t="n">
-        <v>2074.55057089314</v>
+        <v>2193.454134725807</v>
       </c>
     </row>
     <row r="39">
@@ -7250,25 +7250,25 @@
         <v>114.206631213339</v>
       </c>
       <c r="I39" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="J39" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="K39" t="n">
-        <v>75.96123154786345</v>
+        <v>446.9164895271325</v>
       </c>
       <c r="L39" t="n">
-        <v>628.3937003794192</v>
+        <v>446.9164895271325</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.529170671759</v>
+        <v>555.8379692984987</v>
       </c>
       <c r="N39" t="n">
-        <v>2074.797953750985</v>
+        <v>1294.106752377725</v>
       </c>
       <c r="O39" t="n">
-        <v>2352.277072610002</v>
+        <v>1886.090011940317</v>
       </c>
       <c r="P39" t="n">
         <v>2352.277072610002</v>
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>296.4867508846484</v>
+        <v>403.4922842689013</v>
       </c>
       <c r="C40" t="n">
-        <v>126.2816329506376</v>
+        <v>233.2871663348905</v>
       </c>
       <c r="D40" t="n">
-        <v>75.96123154786345</v>
+        <v>233.2871663348905</v>
       </c>
       <c r="E40" t="n">
-        <v>75.96123154786345</v>
+        <v>233.2871663348905</v>
       </c>
       <c r="F40" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="G40" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="H40" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="I40" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="J40" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="K40" t="n">
         <v>188.6896288950475</v>
@@ -7341,10 +7341,10 @@
         <v>392.3501285422321</v>
       </c>
       <c r="M40" t="n">
-        <v>620.3235645955796</v>
+        <v>620.3235645955797</v>
       </c>
       <c r="N40" t="n">
-        <v>844.2039549289403</v>
+        <v>844.2039549289404</v>
       </c>
       <c r="O40" t="n">
         <v>1044.49322140544</v>
@@ -7359,25 +7359,25 @@
         <v>1222.217555045146</v>
       </c>
       <c r="S40" t="n">
-        <v>1222.217555045146</v>
+        <v>1024.129563703551</v>
       </c>
       <c r="T40" t="n">
-        <v>1222.217555045146</v>
+        <v>874.1242963067966</v>
       </c>
       <c r="U40" t="n">
-        <v>1222.217555045146</v>
+        <v>588.7003029602026</v>
       </c>
       <c r="V40" t="n">
-        <v>1222.217555045146</v>
+        <v>588.7003029602026</v>
       </c>
       <c r="W40" t="n">
-        <v>938.8871529763233</v>
+        <v>588.7003029602026</v>
       </c>
       <c r="X40" t="n">
-        <v>704.8068307593063</v>
+        <v>588.7003029602026</v>
       </c>
       <c r="Y40" t="n">
-        <v>481.6947695759496</v>
+        <v>588.7003029602026</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1249.017901174166</v>
+        <v>1491.343396329491</v>
       </c>
       <c r="C41" t="n">
-        <v>855.8423996770962</v>
+        <v>1098.167894832422</v>
       </c>
       <c r="D41" t="n">
-        <v>470.401270893764</v>
+        <v>712.7267660490897</v>
       </c>
       <c r="E41" t="n">
-        <v>67.81774601030848</v>
+        <v>712.7267660490897</v>
       </c>
       <c r="F41" t="n">
-        <v>67.81774601030848</v>
+        <v>295.8323275790675</v>
       </c>
       <c r="G41" t="n">
-        <v>67.81774601030848</v>
+        <v>67.8177460103085</v>
       </c>
       <c r="H41" t="n">
-        <v>67.81774601030848</v>
+        <v>67.8177460103085</v>
       </c>
       <c r="I41" t="n">
-        <v>67.81774601030848</v>
+        <v>67.8177460103085</v>
       </c>
       <c r="J41" t="n">
-        <v>67.81774601030848</v>
+        <v>112.6092794722724</v>
       </c>
       <c r="K41" t="n">
-        <v>298.1365382353013</v>
+        <v>546.9967664978385</v>
       </c>
       <c r="L41" t="n">
-        <v>885.0035627347689</v>
+        <v>1133.863790997306</v>
       </c>
       <c r="M41" t="n">
-        <v>1535.093227523871</v>
+        <v>1783.953455786408</v>
       </c>
       <c r="N41" t="n">
-        <v>2168.677540940873</v>
+        <v>2417.537769203411</v>
       </c>
       <c r="O41" t="n">
-        <v>2708.595614484022</v>
+        <v>2957.45584274656</v>
       </c>
       <c r="P41" t="n">
-        <v>3142.027072252887</v>
+        <v>3390.887300515425</v>
       </c>
       <c r="Q41" t="n">
-        <v>3390.887300515424</v>
+        <v>3390.887300515425</v>
       </c>
       <c r="R41" t="n">
-        <v>3390.887300515424</v>
+        <v>3390.887300515425</v>
       </c>
       <c r="S41" t="n">
-        <v>3238.15622246312</v>
+        <v>3390.887300515425</v>
       </c>
       <c r="T41" t="n">
-        <v>3017.30324670807</v>
+        <v>3390.887300515425</v>
       </c>
       <c r="U41" t="n">
-        <v>3017.30324670807</v>
+        <v>3390.887300515425</v>
       </c>
       <c r="V41" t="n">
-        <v>2675.196437411588</v>
+        <v>3048.780491218943</v>
       </c>
       <c r="W41" t="n">
-        <v>2304.197402379876</v>
+        <v>2677.781456187231</v>
       </c>
       <c r="X41" t="n">
-        <v>1914.744797312932</v>
+        <v>2288.328851120287</v>
       </c>
       <c r="Y41" t="n">
-        <v>1518.254088233534</v>
+        <v>1891.838142040888</v>
       </c>
     </row>
     <row r="42">
@@ -7487,25 +7487,25 @@
         <v>106.0631456757841</v>
       </c>
       <c r="I42" t="n">
-        <v>67.81774601030848</v>
+        <v>67.8177460103085</v>
       </c>
       <c r="J42" t="n">
-        <v>67.81774601030848</v>
+        <v>67.8177460103085</v>
       </c>
       <c r="K42" t="n">
-        <v>67.81774601030848</v>
+        <v>438.7730039895775</v>
       </c>
       <c r="L42" t="n">
-        <v>305.7460741382897</v>
+        <v>991.2054728211333</v>
       </c>
       <c r="M42" t="n">
-        <v>1013.881544430629</v>
+        <v>1285.96326684017</v>
       </c>
       <c r="N42" t="n">
-        <v>1752.150327509855</v>
+        <v>1285.96326684017</v>
       </c>
       <c r="O42" t="n">
-        <v>2344.133587072447</v>
+        <v>1877.946526402762</v>
       </c>
       <c r="P42" t="n">
         <v>2344.133587072447</v>
@@ -7548,34 +7548,34 @@
         <v>669.7240697520105</v>
       </c>
       <c r="C43" t="n">
-        <v>499.5189518179997</v>
+        <v>669.7240697520105</v>
       </c>
       <c r="D43" t="n">
-        <v>343.8858387205144</v>
+        <v>669.7240697520105</v>
       </c>
       <c r="E43" t="n">
-        <v>188.3270265797169</v>
+        <v>669.7240697520105</v>
       </c>
       <c r="F43" t="n">
-        <v>188.3270265797169</v>
+        <v>513.802473482942</v>
       </c>
       <c r="G43" t="n">
-        <v>67.81774601030848</v>
+        <v>345.819723793313</v>
       </c>
       <c r="H43" t="n">
-        <v>67.81774601030848</v>
+        <v>192.7533138301262</v>
       </c>
       <c r="I43" t="n">
-        <v>67.81774601030848</v>
+        <v>67.8177460103085</v>
       </c>
       <c r="J43" t="n">
-        <v>67.81774601030848</v>
+        <v>67.8177460103085</v>
       </c>
       <c r="K43" t="n">
         <v>180.5461433574925</v>
       </c>
       <c r="L43" t="n">
-        <v>384.2066430046771</v>
+        <v>384.2066430046772</v>
       </c>
       <c r="M43" t="n">
         <v>612.1800790580246</v>
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1249.017901174166</v>
+        <v>1693.029140173987</v>
       </c>
       <c r="C44" t="n">
-        <v>855.8423996770962</v>
+        <v>1299.853638676918</v>
       </c>
       <c r="D44" t="n">
-        <v>470.401270893764</v>
+        <v>1299.853638676918</v>
       </c>
       <c r="E44" t="n">
-        <v>67.81774601030848</v>
+        <v>897.2701137934622</v>
       </c>
       <c r="F44" t="n">
-        <v>67.81774601030848</v>
+        <v>480.37567532344</v>
       </c>
       <c r="G44" t="n">
-        <v>67.81774601030848</v>
+        <v>67.8177460103085</v>
       </c>
       <c r="H44" t="n">
-        <v>67.81774601030848</v>
+        <v>67.8177460103085</v>
       </c>
       <c r="I44" t="n">
-        <v>67.81774601030848</v>
+        <v>67.8177460103085</v>
       </c>
       <c r="J44" t="n">
-        <v>112.6092794722721</v>
+        <v>262.7798425499286</v>
       </c>
       <c r="K44" t="n">
-        <v>546.9967664978382</v>
+        <v>697.1673295754947</v>
       </c>
       <c r="L44" t="n">
-        <v>1133.863790997306</v>
+        <v>1284.034354074962</v>
       </c>
       <c r="M44" t="n">
-        <v>1783.953455786408</v>
+        <v>1934.124018864064</v>
       </c>
       <c r="N44" t="n">
-        <v>2417.53776920341</v>
+        <v>2567.708332281067</v>
       </c>
       <c r="O44" t="n">
-        <v>2957.455842746559</v>
+        <v>2708.595614484023</v>
       </c>
       <c r="P44" t="n">
-        <v>3390.887300515424</v>
+        <v>3142.027072252888</v>
       </c>
       <c r="Q44" t="n">
-        <v>3390.887300515424</v>
+        <v>3390.887300515425</v>
       </c>
       <c r="R44" t="n">
-        <v>3390.887300515424</v>
+        <v>3390.887300515425</v>
       </c>
       <c r="S44" t="n">
-        <v>3390.887300515424</v>
+        <v>3238.15622246312</v>
       </c>
       <c r="T44" t="n">
-        <v>3390.887300515424</v>
+        <v>3238.15622246312</v>
       </c>
       <c r="U44" t="n">
-        <v>3148.561805360099</v>
+        <v>2982.451878993628</v>
       </c>
       <c r="V44" t="n">
-        <v>2806.454996063617</v>
+        <v>2982.451878993628</v>
       </c>
       <c r="W44" t="n">
-        <v>2435.455961031905</v>
+        <v>2879.467200031726</v>
       </c>
       <c r="X44" t="n">
-        <v>2046.003355964961</v>
+        <v>2490.014594964783</v>
       </c>
       <c r="Y44" t="n">
-        <v>1649.512646885563</v>
+        <v>2093.523885885384</v>
       </c>
     </row>
     <row r="45">
@@ -7724,13 +7724,13 @@
         <v>106.0631456757841</v>
       </c>
       <c r="I45" t="n">
-        <v>67.81774601030848</v>
+        <v>67.8177460103085</v>
       </c>
       <c r="J45" t="n">
-        <v>67.81774601030848</v>
+        <v>67.8177460103085</v>
       </c>
       <c r="K45" t="n">
-        <v>67.81774601030848</v>
+        <v>67.8177460103085</v>
       </c>
       <c r="L45" t="n">
         <v>305.7460741382897</v>
@@ -7782,37 +7782,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1163.722513903729</v>
+        <v>696.1838245082295</v>
       </c>
       <c r="C46" t="n">
-        <v>993.5173959697183</v>
+        <v>696.1838245082295</v>
       </c>
       <c r="D46" t="n">
-        <v>837.8842828722331</v>
+        <v>696.1838245082295</v>
       </c>
       <c r="E46" t="n">
-        <v>682.3254707314356</v>
+        <v>540.625012367432</v>
       </c>
       <c r="F46" t="n">
-        <v>524.9995359444086</v>
+        <v>383.2990775804049</v>
       </c>
       <c r="G46" t="n">
-        <v>357.0167862547796</v>
+        <v>215.3163278907759</v>
       </c>
       <c r="H46" t="n">
-        <v>203.9503762915928</v>
+        <v>67.8177460103085</v>
       </c>
       <c r="I46" t="n">
-        <v>79.01480847177515</v>
+        <v>67.8177460103085</v>
       </c>
       <c r="J46" t="n">
-        <v>67.81774601030848</v>
+        <v>67.8177460103085</v>
       </c>
       <c r="K46" t="n">
         <v>180.5461433574925</v>
       </c>
       <c r="L46" t="n">
-        <v>384.2066430046771</v>
+        <v>384.2066430046772</v>
       </c>
       <c r="M46" t="n">
         <v>612.1800790580246</v>
@@ -7836,22 +7836,22 @@
         <v>1214.074069507591</v>
       </c>
       <c r="T46" t="n">
-        <v>1214.074069507591</v>
+        <v>979.5142265770518</v>
       </c>
       <c r="U46" t="n">
-        <v>1214.074069507591</v>
+        <v>979.5142265770518</v>
       </c>
       <c r="V46" t="n">
-        <v>1214.074069507591</v>
+        <v>979.5142265770518</v>
       </c>
       <c r="W46" t="n">
-        <v>1214.074069507591</v>
+        <v>696.1838245082295</v>
       </c>
       <c r="X46" t="n">
-        <v>1214.074069507591</v>
+        <v>696.1838245082295</v>
       </c>
       <c r="Y46" t="n">
-        <v>1214.074069507591</v>
+        <v>696.1838245082295</v>
       </c>
     </row>
   </sheetData>
@@ -7978,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>614.1534811140705</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
         <v>701.2411122488187</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>502.0059847475129</v>
+        <v>302.3186727388648</v>
       </c>
       <c r="Q2" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8057,7 +8057,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
         <v>412.5657697396227</v>
@@ -8066,10 +8066,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>92.38712204931191</v>
+        <v>340.274574506989</v>
       </c>
       <c r="N3" t="n">
-        <v>447.5171231095472</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O3" t="n">
         <v>614.4252180716981</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
         <v>505.666843611017</v>
@@ -8224,19 +8224,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>701.2411122488187</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N5" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O5" t="n">
-        <v>545.7463662600587</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
-        <v>144.4986984183922</v>
+        <v>149.8974233269835</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8294,7 +8294,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
         <v>412.5657697396227</v>
@@ -8303,10 +8303,10 @@
         <v>90.06034685691823</v>
       </c>
       <c r="M6" t="n">
-        <v>683.7992483186067</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N6" t="n">
-        <v>581.2880043687411</v>
+        <v>230.2980308590258</v>
       </c>
       <c r="O6" t="n">
         <v>614.4252180716981</v>
@@ -8315,7 +8315,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8452,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>427.4407941030111</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
@@ -8467,13 +8467,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>594.0482827698827</v>
+        <v>399.6354845339704</v>
       </c>
       <c r="P8" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q8" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8531,28 +8531,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M9" t="n">
-        <v>683.7992483186067</v>
+        <v>237.313040054171</v>
       </c>
       <c r="N9" t="n">
-        <v>676.7842391234615</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
-        <v>440.196945759487</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8777,10 +8777,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>280.3005629364409</v>
+        <v>533.8691431821126</v>
       </c>
       <c r="N12" t="n">
-        <v>51.06865900996809</v>
+        <v>51.06865900996808</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
@@ -8789,7 +8789,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>327.7205688679246</v>
+        <v>74.15198862225313</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9014,16 +9014,16 @@
         <v>61.42255393364717</v>
       </c>
       <c r="M15" t="n">
-        <v>726.4998994499999</v>
+        <v>535.5880427947421</v>
       </c>
       <c r="N15" t="n">
-        <v>121.957707236158</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>496.801919078302</v>
+        <v>61.89737899377429</v>
       </c>
       <c r="Q15" t="n">
         <v>327.7205688679246</v>
@@ -9242,28 +9242,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>52.17609846406339</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>37.86348895248232</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>20.498343894047</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>726.4998994499999</v>
+        <v>11.21154561935386</v>
       </c>
       <c r="N18" t="n">
-        <v>747.7741039759435</v>
+        <v>2.048060461573897</v>
       </c>
       <c r="O18" t="n">
-        <v>614.4252180716981</v>
+        <v>490.0065148705291</v>
       </c>
       <c r="P18" t="n">
-        <v>266.23754277355</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>50.09263685995592</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9479,7 +9479,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>52.17609846406337</v>
+        <v>72.28331192986897</v>
       </c>
       <c r="K21" t="n">
         <v>412.5657697396227</v>
@@ -9488,7 +9488,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>726.4998994499999</v>
+        <v>11.21154561935388</v>
       </c>
       <c r="N21" t="n">
         <v>2.04806046157394</v>
@@ -9497,10 +9497,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>79.24871072143</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>50.0926368599559</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9716,7 +9716,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>52.17609846406339</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
         <v>412.5657697396227</v>
@@ -9725,19 +9725,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>11.21154561935391</v>
       </c>
       <c r="N24" t="n">
-        <v>55.39087298317197</v>
+        <v>2.048060461573968</v>
       </c>
       <c r="O24" t="n">
-        <v>614.4252180716981</v>
+        <v>490.0065148705294</v>
       </c>
       <c r="P24" t="n">
-        <v>25.90589819983202</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>50.09263685995592</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9953,13 +9953,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>52.17609846406339</v>
+        <v>52.17609846406338</v>
       </c>
       <c r="K27" t="n">
-        <v>37.86348895248232</v>
+        <v>37.86348895248231</v>
       </c>
       <c r="L27" t="n">
-        <v>260.8299884677651</v>
+        <v>260.829988467765</v>
       </c>
       <c r="M27" t="n">
         <v>726.4998994499999</v>
@@ -9971,10 +9971,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
-        <v>25.90589819983202</v>
+        <v>25.905898199832</v>
       </c>
       <c r="Q27" t="n">
-        <v>50.09263685995592</v>
+        <v>50.09263685995591</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10190,28 +10190,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>52.17609846406339</v>
+        <v>52.17609846406338</v>
       </c>
       <c r="K30" t="n">
-        <v>37.86348895248232</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>260.8299884677662</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>726.4998994499999</v>
+        <v>308.9466910931282</v>
       </c>
       <c r="N30" t="n">
-        <v>747.7741039759435</v>
+        <v>2.048060461573954</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
-        <v>25.90589819983202</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>50.09263685995592</v>
+        <v>50.09263685995591</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10427,28 +10427,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>52.17609846406339</v>
+        <v>52.17609846406338</v>
       </c>
       <c r="K33" t="n">
-        <v>37.86348895248232</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>260.8299884677651</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>726.4998994499999</v>
+        <v>11.2115456193539</v>
       </c>
       <c r="N33" t="n">
-        <v>747.7741039759435</v>
+        <v>299.7832059353482</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>25.90589819983202</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>50.09263685995592</v>
+        <v>50.09263685995591</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10664,28 +10664,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>52.17609846406339</v>
+        <v>52.17609846406337</v>
       </c>
       <c r="K36" t="n">
-        <v>37.86348895248232</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>726.4998994499999</v>
+        <v>629.2816475322222</v>
       </c>
       <c r="N36" t="n">
-        <v>747.7741039759435</v>
+        <v>2.04806046157394</v>
       </c>
       <c r="O36" t="n">
-        <v>296.744267866067</v>
+        <v>16.46232962463523</v>
       </c>
       <c r="P36" t="n">
-        <v>25.90589819983202</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>50.09263685995592</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10901,28 +10901,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>52.17609846406338</v>
+        <v>52.17609846406336</v>
       </c>
       <c r="K39" t="n">
-        <v>37.86348895248231</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>578.5109386733963</v>
+        <v>20.49834389404693</v>
       </c>
       <c r="M39" t="n">
-        <v>726.4998994499999</v>
+        <v>121.2332423581076</v>
       </c>
       <c r="N39" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O39" t="n">
-        <v>296.7442678660666</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>25.905898199832</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>50.09263685995591</v>
+        <v>50.09263685995587</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11059,10 +11059,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>66.85930902235421</v>
+        <v>112.1032822162571</v>
       </c>
       <c r="K41" t="n">
-        <v>299.5368488629631</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L41" t="n">
         <v>651.5514946987026</v>
@@ -11080,7 +11080,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q41" t="n">
-        <v>331.2113854294513</v>
+        <v>79.83741748749449</v>
       </c>
       <c r="R41" t="n">
         <v>102.5176150018526</v>
@@ -11138,28 +11138,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>52.17609846406338</v>
+        <v>52.17609846406336</v>
       </c>
       <c r="K42" t="n">
-        <v>37.86348895248231</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>260.8299884677654</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>726.4998994499999</v>
+        <v>308.9466910931283</v>
       </c>
       <c r="N42" t="n">
-        <v>747.7741039759435</v>
+        <v>2.048060461573883</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>25.905898199832</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>50.09263685995591</v>
+        <v>50.09263685995587</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>112.1032822162568</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K44" t="n">
         <v>505.666843611017</v>
@@ -11311,13 +11311,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O44" t="n">
-        <v>594.0482827698827</v>
+        <v>190.9868773757482</v>
       </c>
       <c r="P44" t="n">
         <v>502.0059847475129</v>
       </c>
       <c r="Q44" t="n">
-        <v>79.83741748749453</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R44" t="n">
         <v>102.5176150018526</v>
@@ -11375,13 +11375,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>52.17609846406338</v>
+        <v>52.17609846406336</v>
       </c>
       <c r="K45" t="n">
-        <v>37.86348895248231</v>
+        <v>37.86348895248227</v>
       </c>
       <c r="L45" t="n">
-        <v>260.8299884677654</v>
+        <v>260.8299884677653</v>
       </c>
       <c r="M45" t="n">
         <v>726.4998994499999</v>
@@ -11393,10 +11393,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>25.905898199832</v>
+        <v>25.90589819983196</v>
       </c>
       <c r="Q45" t="n">
-        <v>50.09263685995591</v>
+        <v>50.09263685995587</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23257,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>21.64996752558631</v>
       </c>
       <c r="C11" t="n">
-        <v>274.7869251791346</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>318.3176568687902</v>
       </c>
       <c r="I11" t="n">
         <v>127.4501971105622</v>
@@ -23314,19 +23314,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>253.1754815281552</v>
       </c>
       <c r="V11" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D13" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4609377894556</v>
@@ -23439,7 +23439,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>22.25679452515966</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23466,22 +23466,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>198.8608923274312</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>232.8894020508675</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>282.5783724456766</v>
       </c>
       <c r="V13" t="n">
-        <v>253.8237020851803</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X13" t="n">
-        <v>231.7395189948467</v>
+        <v>132.8468279329529</v>
       </c>
       <c r="Y13" t="n">
         <v>220.8809405715231</v>
@@ -23497,16 +23497,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>297.0835140689944</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23542,22 +23542,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>22.12819665185061</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>159.2310895204677</v>
       </c>
       <c r="T14" t="n">
-        <v>220.1865020871814</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>63.95289011908235</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23655,28 +23655,28 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C16" t="n">
-        <v>110.2227180125249</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4609377894556</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>152.9406481689638</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>4.560480192583512</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>22.25679452515965</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23703,13 +23703,13 @@
         <v>117.6900996594426</v>
       </c>
       <c r="S16" t="n">
-        <v>198.8608923274312</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>232.8894020508675</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>282.5783724456766</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>263.319551727384</v>
@@ -23734,10 +23734,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23746,7 +23746,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
-        <v>54.23402042607147</v>
+        <v>408.4323500200001</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23788,7 +23788,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>253.1473000347972</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>163.484834348872</v>
       </c>
     </row>
     <row r="18">
@@ -23898,22 +23898,22 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E19" t="n">
-        <v>140.2834537803639</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.3029221927327</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>151.5357458635549</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>123.6862121416195</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>11.08509183685199</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23943,22 +23943,22 @@
         <v>196.1071114281788</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>232.2142445012334</v>
       </c>
       <c r="U19" t="n">
-        <v>282.5697534131281</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>220.8809405715231</v>
+        <v>144.2131024927066</v>
       </c>
     </row>
     <row r="20">
@@ -23977,13 +23977,13 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>44.92007727354927</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24019,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>45.72577375767894</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>218.6444459974996</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>253.1473000347972</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
-        <v>19.53726703078667</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.3029221927327</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>151.5357458635549</v>
       </c>
       <c r="I22" t="n">
         <v>123.6862121416195</v>
@@ -24180,22 +24180,22 @@
         <v>196.1071114281788</v>
       </c>
       <c r="T22" t="n">
-        <v>232.2142445012334</v>
+        <v>170.0434176893207</v>
       </c>
       <c r="U22" t="n">
-        <v>282.5697534131281</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24208,10 +24208,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24220,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>408.4323500200001</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>314.7099853831353</v>
       </c>
       <c r="I23" t="n">
-        <v>62.60844720481449</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,19 +24256,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>151.2037672717813</v>
+        <v>147.3585984044613</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>253.1473000347972</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
-        <v>168.5030667546707</v>
+        <v>92.30995418224124</v>
       </c>
       <c r="D25" t="n">
         <v>154.0767819665104</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>110.585143828612</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>196.1071114281788</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>230.4991426843612</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>231.7395189948467</v>
@@ -24448,7 +24448,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>113.8693593270195</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>32.38775426078683</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24505,7 +24505,7 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
-        <v>367.2890446813954</v>
+        <v>131.9594407737016</v>
       </c>
       <c r="X26" t="n">
         <v>385.5580790162737</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>154.0032240193895</v>
@@ -24615,16 +24615,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.3029221927327</v>
       </c>
       <c r="H28" t="n">
-        <v>47.14053009601835</v>
+        <v>151.5357458635549</v>
       </c>
       <c r="I28" t="n">
-        <v>123.6862121416195</v>
+        <v>22.40143493319347</v>
       </c>
       <c r="J28" t="n">
-        <v>11.08509183685201</v>
+        <v>11.085091836852</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>110.585143828612</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>196.1071114281788</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>232.2142445012334</v>
@@ -24663,13 +24663,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24694,13 +24694,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>408.4323500200001</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>314.7099853831353</v>
       </c>
       <c r="I29" t="n">
-        <v>113.8693593270195</v>
+        <v>113.8693593270194</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,19 +24730,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>151.2037672717813</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>218.6444459974996</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>30.93007048955598</v>
+        <v>103.2358478939243</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
         <v>168.5030667546707</v>
@@ -24852,16 +24852,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
-        <v>2.32367548296718</v>
+        <v>9.431310982624382</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>123.6862121416195</v>
       </c>
       <c r="J31" t="n">
-        <v>11.08509183685201</v>
+        <v>11.085091836852</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24894,16 +24894,16 @@
         <v>232.2142445012334</v>
       </c>
       <c r="U31" t="n">
-        <v>282.5697534131281</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
         <v>220.8809405715231</v>
@@ -24922,7 +24922,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24931,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>408.4323500200001</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>314.7099853831353</v>
       </c>
       <c r="I32" t="n">
-        <v>113.8693593270195</v>
+        <v>113.8693593270194</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,16 +24967,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>151.2037672717813</v>
       </c>
       <c r="T32" t="n">
-        <v>19.19156626333821</v>
+        <v>218.6444459974996</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>100.6766793060384</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25074,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>106.6881004255718</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
         <v>155.7526754391568</v>
@@ -25098,7 +25098,7 @@
         <v>123.6862121416195</v>
       </c>
       <c r="J34" t="n">
-        <v>11.08509183685201</v>
+        <v>11.085091836852</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>110.585143828612</v>
       </c>
       <c r="S34" t="n">
-        <v>3.822115823956524</v>
+        <v>196.1071114281788</v>
       </c>
       <c r="T34" t="n">
         <v>232.2142445012334</v>
@@ -25134,13 +25134,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>220.8809405715231</v>
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>314.7099853831353</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>113.8693593270194</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,19 +25204,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>151.2037672717813</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>66.17382526874076</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>253.1473000347972</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
-        <v>46.98796865388755</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25314,16 +25314,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D37" t="n">
-        <v>106.3322399427581</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E37" t="n">
-        <v>154.0032240193895</v>
+        <v>66.6618061717849</v>
       </c>
       <c r="F37" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.3029221927327</v>
@@ -25335,7 +25335,7 @@
         <v>123.6862121416195</v>
       </c>
       <c r="J37" t="n">
-        <v>11.08509183685201</v>
+        <v>11.085091836852</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25362,25 +25362,25 @@
         <v>110.585143828612</v>
       </c>
       <c r="S37" t="n">
-        <v>196.1071114281788</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>232.2142445012334</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>282.5697534131281</v>
       </c>
       <c r="V37" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="38">
@@ -25405,13 +25405,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>408.4323500200001</v>
+        <v>404.5871811526789</v>
       </c>
       <c r="H38" t="n">
         <v>314.7099853831353</v>
       </c>
       <c r="I38" t="n">
-        <v>113.8693593270194</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,22 +25441,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>151.2037672717813</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>15.22020474256251</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25554,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>104.259584577764</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.3029221927327</v>
@@ -25572,7 +25572,7 @@
         <v>123.6862121416195</v>
       </c>
       <c r="J40" t="n">
-        <v>11.085091836852</v>
+        <v>11.08509183685199</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25599,25 +25599,25 @@
         <v>110.585143828612</v>
       </c>
       <c r="S40" t="n">
-        <v>196.1071114281788</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>232.2142445012334</v>
+        <v>83.70902977844665</v>
       </c>
       <c r="U40" t="n">
-        <v>282.5697534131281</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="41">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>129.9459730655087</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25636,13 +25636,13 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>408.4323500200001</v>
+        <v>182.6979142669287</v>
       </c>
       <c r="H41" t="n">
         <v>314.7099853831353</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>151.2037672717813</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.6444459974996</v>
       </c>
       <c r="U41" t="n">
         <v>253.1473000347972</v>
@@ -25788,28 +25788,28 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F43" t="n">
-        <v>155.7526754391568</v>
+        <v>1.390295132779016</v>
       </c>
       <c r="G43" t="n">
-        <v>46.99873442901836</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>151.5357458635549</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>123.6862121416195</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>11.085091836852</v>
+        <v>11.08509183685199</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25870,16 +25870,16 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>408.4323500200001</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>314.7099853831353</v>
@@ -25915,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>151.2037672717813</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>218.6444459974996</v>
       </c>
       <c r="U44" t="n">
-        <v>13.24505983102514</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>265.3342125091126</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>133.5078984565654</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26040,13 +26040,13 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>5.512149801892178</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>123.6862121416195</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>11.08509183685199</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>196.1071114281788</v>
       </c>
       <c r="T46" t="n">
-        <v>232.2142445012334</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>282.5697534131281</v>
@@ -26085,7 +26085,7 @@
         <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>231.7395189948467</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>693175.6819727541</v>
+        <v>693175.6819727542</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>693175.6819727542</v>
+        <v>693175.6819727541</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>693175.6819727537</v>
+        <v>693175.681972754</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>693175.6819727538</v>
+        <v>693175.681972754</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>693175.6819727541</v>
+        <v>693175.681972754</v>
       </c>
     </row>
     <row r="14">
@@ -26316,19 +26316,19 @@
         <v>486896.8808520635</v>
       </c>
       <c r="C2" t="n">
-        <v>486896.8808520637</v>
+        <v>486896.8808520635</v>
       </c>
       <c r="D2" t="n">
-        <v>486896.8808520635</v>
+        <v>486896.8808520636</v>
       </c>
       <c r="E2" t="n">
+        <v>362140.8498150113</v>
+      </c>
+      <c r="F2" t="n">
         <v>362140.8498150114</v>
       </c>
-      <c r="F2" t="n">
-        <v>362140.8498150113</v>
-      </c>
       <c r="G2" t="n">
-        <v>388777.4008801421</v>
+        <v>388777.4008801423</v>
       </c>
       <c r="H2" t="n">
         <v>388777.4008801422</v>
@@ -26340,22 +26340,22 @@
         <v>388777.4008801422</v>
       </c>
       <c r="K2" t="n">
-        <v>388777.4008801421</v>
+        <v>388777.4008801422</v>
       </c>
       <c r="L2" t="n">
-        <v>388777.4008801421</v>
+        <v>388777.4008801423</v>
       </c>
       <c r="M2" t="n">
-        <v>388777.4008801422</v>
+        <v>388777.4008801423</v>
       </c>
       <c r="N2" t="n">
-        <v>388777.4008801424</v>
+        <v>388777.4008801423</v>
       </c>
       <c r="O2" t="n">
-        <v>367551.8757056208</v>
+        <v>367551.8757056207</v>
       </c>
       <c r="P2" t="n">
-        <v>367551.8757056206</v>
+        <v>367551.8757056207</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>198195.8059917449</v>
+        <v>198195.805991745</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>125792.4511491541</v>
+        <v>125792.451149154</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>96028.81230320228</v>
+        <v>96028.81230320236</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>154739.4343656033</v>
+        <v>154739.4343656035</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>63873.40219459814</v>
+        <v>63873.40219459806</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26429,16 +26429,16 @@
         <v>76605.27390823119</v>
       </c>
       <c r="F4" t="n">
-        <v>76605.27390823117</v>
+        <v>76605.27390823119</v>
       </c>
       <c r="G4" t="n">
-        <v>74648.49911963027</v>
+        <v>74648.49911963029</v>
       </c>
       <c r="H4" t="n">
         <v>74648.49911963029</v>
       </c>
       <c r="I4" t="n">
-        <v>74648.49911963027</v>
+        <v>74648.49911963029</v>
       </c>
       <c r="J4" t="n">
         <v>74648.49911963027</v>
@@ -26447,13 +26447,13 @@
         <v>74648.49911963029</v>
       </c>
       <c r="L4" t="n">
-        <v>74648.49911963027</v>
+        <v>74648.49911963029</v>
       </c>
       <c r="M4" t="n">
         <v>74648.49911963029</v>
       </c>
       <c r="N4" t="n">
-        <v>74648.49911963029</v>
+        <v>74648.49911963027</v>
       </c>
       <c r="O4" t="n">
         <v>69787.82040742025</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>69585.45727717312</v>
+        <v>69585.45727717315</v>
       </c>
       <c r="C5" t="n">
-        <v>69585.45727717312</v>
+        <v>69585.45727717315</v>
       </c>
       <c r="D5" t="n">
-        <v>69585.45727717312</v>
+        <v>69585.45727717315</v>
       </c>
       <c r="E5" t="n">
         <v>52878.24511119562</v>
@@ -26484,13 +26484,13 @@
         <v>52878.24511119562</v>
       </c>
       <c r="G5" t="n">
-        <v>60977.55903357454</v>
+        <v>60977.55903357455</v>
       </c>
       <c r="H5" t="n">
         <v>60977.55903357454</v>
       </c>
       <c r="I5" t="n">
-        <v>60977.55903357456</v>
+        <v>60977.55903357454</v>
       </c>
       <c r="J5" t="n">
         <v>60977.55903357454</v>
@@ -26499,19 +26499,19 @@
         <v>60977.55903357454</v>
       </c>
       <c r="L5" t="n">
-        <v>60977.55903357454</v>
+        <v>60977.55903357455</v>
       </c>
       <c r="M5" t="n">
         <v>60977.55903357455</v>
       </c>
       <c r="N5" t="n">
-        <v>60977.55903357454</v>
+        <v>60977.55903357456</v>
       </c>
       <c r="O5" t="n">
-        <v>54788.51002503277</v>
+        <v>54788.51002503278</v>
       </c>
       <c r="P5" t="n">
-        <v>54788.51002503277</v>
+        <v>54788.51002503278</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3906.238968521939</v>
+        <v>-3906.238968522142</v>
       </c>
       <c r="C6" t="n">
-        <v>194289.567023223</v>
+        <v>194289.5670232228</v>
       </c>
       <c r="D6" t="n">
         <v>194289.5670232229</v>
       </c>
       <c r="E6" t="n">
-        <v>106864.8796464305</v>
+        <v>106402.8202722191</v>
       </c>
       <c r="F6" t="n">
-        <v>232657.3307955845</v>
+        <v>232195.2714213733</v>
       </c>
       <c r="G6" t="n">
-        <v>157122.530423735</v>
+        <v>156759.1249423576</v>
       </c>
       <c r="H6" t="n">
-        <v>253151.3427269374</v>
+        <v>252787.9372455599</v>
       </c>
       <c r="I6" t="n">
-        <v>253151.3427269374</v>
+        <v>252787.9372455599</v>
       </c>
       <c r="J6" t="n">
-        <v>98411.90836133406</v>
+        <v>98048.5028799564</v>
       </c>
       <c r="K6" t="n">
-        <v>253151.3427269373</v>
+        <v>252787.9372455599</v>
       </c>
       <c r="L6" t="n">
-        <v>253151.3427269373</v>
+        <v>252787.93724556</v>
       </c>
       <c r="M6" t="n">
-        <v>189277.9405323392</v>
+        <v>188914.5350509619</v>
       </c>
       <c r="N6" t="n">
-        <v>253151.3427269376</v>
+        <v>252787.93724556</v>
       </c>
       <c r="O6" t="n">
-        <v>242975.5452731678</v>
+        <v>242533.5267355882</v>
       </c>
       <c r="P6" t="n">
-        <v>242975.5452731676</v>
+        <v>242533.5267355882</v>
       </c>
     </row>
   </sheetData>
@@ -26746,13 +26746,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>61.31918088812709</v>
+        <v>61.31918088812711</v>
       </c>
       <c r="F3" t="n">
-        <v>61.31918088812709</v>
+        <v>61.31918088812711</v>
       </c>
       <c r="G3" t="n">
-        <v>148.9460117980881</v>
+        <v>148.9460117980882</v>
       </c>
       <c r="H3" t="n">
         <v>148.9460117980881</v>
@@ -26773,13 +26773,13 @@
         <v>148.9460117980881</v>
       </c>
       <c r="N3" t="n">
-        <v>148.9460117980881</v>
+        <v>148.9460117980882</v>
       </c>
       <c r="O3" t="n">
-        <v>148.9460117980881</v>
+        <v>148.9460117980882</v>
       </c>
       <c r="P3" t="n">
-        <v>148.9460117980881</v>
+        <v>148.9460117980882</v>
       </c>
     </row>
     <row r="4">
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="C4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="D4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="E4" t="n">
         <v>847.721825128856</v>
@@ -26810,28 +26810,28 @@
         <v>949.5153943482932</v>
       </c>
       <c r="I4" t="n">
-        <v>949.5153943482934</v>
+        <v>949.5153943482931</v>
       </c>
       <c r="J4" t="n">
-        <v>949.5153943482931</v>
+        <v>949.5153943482932</v>
       </c>
       <c r="K4" t="n">
-        <v>949.5153943482931</v>
+        <v>949.5153943482932</v>
       </c>
       <c r="L4" t="n">
-        <v>949.5153943482931</v>
+        <v>949.5153943482933</v>
       </c>
       <c r="M4" t="n">
         <v>949.5153943482933</v>
       </c>
       <c r="N4" t="n">
-        <v>949.5153943482932</v>
+        <v>949.5153943482933</v>
       </c>
       <c r="O4" t="n">
-        <v>847.721825128856</v>
+        <v>847.7218251288562</v>
       </c>
       <c r="P4" t="n">
-        <v>847.721825128856</v>
+        <v>847.7218251288562</v>
       </c>
     </row>
   </sheetData>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>61.31918088812709</v>
+        <v>61.31918088812711</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>87.62683090996099</v>
+        <v>87.62683090996109</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>256.3096988595613</v>
+        <v>256.3096988595611</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692945</v>
+        <v>591.4121262692952</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>256.3096988595614</v>
+        <v>256.3096988595611</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>256.3096988595613</v>
+        <v>256.3096988595611</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>388.6519147637386</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>304.4960027186708</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27438,13 +27438,13 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27545,16 +27545,16 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>143.0650093463461</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>111.4478228600192</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>131.7634811092929</v>
@@ -27587,19 +27587,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
         <v>231.7395189948467</v>
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>166.6703233844854</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27663,22 +27663,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>205.1743401347732</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>385.5580790162737</v>
@@ -27779,13 +27779,13 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>44.63187494449745</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>259.8501843283407</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
         <v>263.319551727384</v>
@@ -27861,16 +27861,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>256.673342268868</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27906,10 +27906,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>210.887478416992</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
@@ -28010,25 +28010,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>107.2573873682586</v>
       </c>
       <c r="C10" t="n">
-        <v>155.3902437026522</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>131.7634811092929</v>
@@ -28061,10 +28061,10 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
         <v>282.5844038405181</v>
@@ -28076,7 +28076,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
         <v>220.8809405715231</v>
@@ -31755,43 +31755,43 @@
         <v>0.2465092699020183</v>
       </c>
       <c r="H11" t="n">
-        <v>2.524563060384045</v>
+        <v>2.524563060384046</v>
       </c>
       <c r="I11" t="n">
-        <v>9.503548627897569</v>
+        <v>9.503548627897571</v>
       </c>
       <c r="J11" t="n">
-        <v>20.92216614634644</v>
+        <v>20.92216614634645</v>
       </c>
       <c r="K11" t="n">
-        <v>31.35690354129888</v>
+        <v>31.35690354129889</v>
       </c>
       <c r="L11" t="n">
-        <v>38.90101161006278</v>
+        <v>38.90101161006279</v>
       </c>
       <c r="M11" t="n">
-        <v>43.2848708386828</v>
+        <v>43.28487083868281</v>
       </c>
       <c r="N11" t="n">
-        <v>43.98526530179191</v>
+        <v>43.98526530179192</v>
       </c>
       <c r="O11" t="n">
         <v>41.53403874920372</v>
       </c>
       <c r="P11" t="n">
-        <v>35.44834114849763</v>
+        <v>35.44834114849764</v>
       </c>
       <c r="Q11" t="n">
-        <v>26.62022792013159</v>
+        <v>26.6202279201316</v>
       </c>
       <c r="R11" t="n">
         <v>15.48478792548267</v>
       </c>
       <c r="S11" t="n">
-        <v>5.617329987892247</v>
+        <v>5.617329987892249</v>
       </c>
       <c r="T11" t="n">
-        <v>1.079094328996085</v>
+        <v>1.079094328996086</v>
       </c>
       <c r="U11" t="n">
         <v>0.01972074159216146</v>
@@ -31834,10 +31834,10 @@
         <v>0.13189408719333</v>
       </c>
       <c r="H12" t="n">
-        <v>1.273819210525055</v>
+        <v>1.273819210525056</v>
       </c>
       <c r="I12" t="n">
-        <v>4.541090282752809</v>
+        <v>4.54109028275281</v>
       </c>
       <c r="J12" t="n">
         <v>12.46109882557685</v>
@@ -31849,13 +31849,13 @@
         <v>28.63779292327106</v>
       </c>
       <c r="M12" t="n">
-        <v>33.41895358402926</v>
+        <v>33.41895358402927</v>
       </c>
       <c r="N12" t="n">
-        <v>34.30345384419857</v>
+        <v>34.30345384419858</v>
       </c>
       <c r="O12" t="n">
-        <v>31.38095854375689</v>
+        <v>31.3809585437569</v>
       </c>
       <c r="P12" t="n">
         <v>25.18598582554036</v>
@@ -31864,16 +31864,16 @@
         <v>16.83616453366086</v>
       </c>
       <c r="R12" t="n">
-        <v>8.189003062757806</v>
+        <v>8.189003062757809</v>
       </c>
       <c r="S12" t="n">
-        <v>2.449874821332246</v>
+        <v>2.449874821332247</v>
       </c>
       <c r="T12" t="n">
-        <v>0.5316257286432904</v>
+        <v>0.5316257286432905</v>
       </c>
       <c r="U12" t="n">
-        <v>0.008677242578508555</v>
+        <v>0.008677242578508557</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1105755720933439</v>
+        <v>0.110575572093344</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9831173591571858</v>
+        <v>0.983117359157186</v>
       </c>
       <c r="I13" t="n">
-        <v>3.325309022588926</v>
+        <v>3.325309022588927</v>
       </c>
       <c r="J13" t="n">
-        <v>7.817692946999415</v>
+        <v>7.817692946999417</v>
       </c>
       <c r="K13" t="n">
         <v>12.84687101229941</v>
@@ -31937,22 +31937,22 @@
         <v>15.62935449915738</v>
       </c>
       <c r="P13" t="n">
-        <v>13.37361282845315</v>
+        <v>13.37361282845316</v>
       </c>
       <c r="Q13" t="n">
-        <v>9.259196314107191</v>
+        <v>9.259196314107193</v>
       </c>
       <c r="R13" t="n">
-        <v>4.971879814306172</v>
+        <v>4.971879814306173</v>
       </c>
       <c r="S13" t="n">
-        <v>1.927030651844911</v>
+        <v>1.927030651844912</v>
       </c>
       <c r="T13" t="n">
-        <v>0.4724592625806512</v>
+        <v>0.4724592625806513</v>
       </c>
       <c r="U13" t="n">
-        <v>0.00603139484145513</v>
+        <v>0.006031394841455132</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2465092699020183</v>
+        <v>0.2465092699020184</v>
       </c>
       <c r="H14" t="n">
-        <v>2.524563060384045</v>
+        <v>2.524563060384046</v>
       </c>
       <c r="I14" t="n">
-        <v>9.503548627897569</v>
+        <v>9.503548627897572</v>
       </c>
       <c r="J14" t="n">
-        <v>20.92216614634644</v>
+        <v>20.92216614634645</v>
       </c>
       <c r="K14" t="n">
-        <v>31.35690354129888</v>
+        <v>31.35690354129889</v>
       </c>
       <c r="L14" t="n">
-        <v>38.90101161006278</v>
+        <v>38.9010116100628</v>
       </c>
       <c r="M14" t="n">
-        <v>43.2848708386828</v>
+        <v>43.28487083868281</v>
       </c>
       <c r="N14" t="n">
-        <v>43.98526530179191</v>
+        <v>43.98526530179193</v>
       </c>
       <c r="O14" t="n">
-        <v>41.53403874920372</v>
+        <v>41.53403874920373</v>
       </c>
       <c r="P14" t="n">
-        <v>35.44834114849763</v>
+        <v>35.44834114849765</v>
       </c>
       <c r="Q14" t="n">
-        <v>26.62022792013159</v>
+        <v>26.6202279201316</v>
       </c>
       <c r="R14" t="n">
         <v>15.48478792548267</v>
       </c>
       <c r="S14" t="n">
-        <v>5.617329987892247</v>
+        <v>5.617329987892249</v>
       </c>
       <c r="T14" t="n">
-        <v>1.079094328996085</v>
+        <v>1.079094328996086</v>
       </c>
       <c r="U14" t="n">
-        <v>0.01972074159216146</v>
+        <v>0.01972074159216147</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,10 +32071,10 @@
         <v>0.13189408719333</v>
       </c>
       <c r="H15" t="n">
-        <v>1.273819210525055</v>
+        <v>1.273819210525056</v>
       </c>
       <c r="I15" t="n">
-        <v>4.541090282752809</v>
+        <v>4.541090282752811</v>
       </c>
       <c r="J15" t="n">
         <v>12.46109882557685</v>
@@ -32083,34 +32083,34 @@
         <v>21.29800266752996</v>
       </c>
       <c r="L15" t="n">
-        <v>28.63779292327106</v>
+        <v>28.63779292327107</v>
       </c>
       <c r="M15" t="n">
-        <v>33.41895358402926</v>
+        <v>33.41895358402927</v>
       </c>
       <c r="N15" t="n">
-        <v>34.30345384419857</v>
+        <v>34.30345384419859</v>
       </c>
       <c r="O15" t="n">
-        <v>31.38095854375689</v>
+        <v>31.3809585437569</v>
       </c>
       <c r="P15" t="n">
         <v>25.18598582554036</v>
       </c>
       <c r="Q15" t="n">
-        <v>16.83616453366086</v>
+        <v>16.83616453366087</v>
       </c>
       <c r="R15" t="n">
-        <v>8.189003062757806</v>
+        <v>8.189003062757809</v>
       </c>
       <c r="S15" t="n">
-        <v>2.449874821332246</v>
+        <v>2.449874821332247</v>
       </c>
       <c r="T15" t="n">
-        <v>0.5316257286432904</v>
+        <v>0.5316257286432905</v>
       </c>
       <c r="U15" t="n">
-        <v>0.008677242578508555</v>
+        <v>0.008677242578508557</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1105755720933439</v>
+        <v>0.110575572093344</v>
       </c>
       <c r="H16" t="n">
-        <v>0.9831173591571858</v>
+        <v>0.9831173591571861</v>
       </c>
       <c r="I16" t="n">
-        <v>3.325309022588926</v>
+        <v>3.325309022588927</v>
       </c>
       <c r="J16" t="n">
-        <v>7.817692946999415</v>
+        <v>7.817692946999418</v>
       </c>
       <c r="K16" t="n">
         <v>12.84687101229941</v>
@@ -32168,28 +32168,28 @@
         <v>17.33322354186845</v>
       </c>
       <c r="N16" t="n">
-        <v>16.92107822770236</v>
+        <v>16.92107822770237</v>
       </c>
       <c r="O16" t="n">
-        <v>15.62935449915738</v>
+        <v>15.62935449915739</v>
       </c>
       <c r="P16" t="n">
-        <v>13.37361282845315</v>
+        <v>13.37361282845316</v>
       </c>
       <c r="Q16" t="n">
-        <v>9.259196314107191</v>
+        <v>9.259196314107195</v>
       </c>
       <c r="R16" t="n">
-        <v>4.971879814306172</v>
+        <v>4.971879814306174</v>
       </c>
       <c r="S16" t="n">
-        <v>1.927030651844911</v>
+        <v>1.927030651844912</v>
       </c>
       <c r="T16" t="n">
-        <v>0.4724592625806512</v>
+        <v>0.4724592625806514</v>
       </c>
       <c r="U16" t="n">
-        <v>0.00603139484145513</v>
+        <v>0.006031394841455132</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5987779368767355</v>
+        <v>0.598777936876736</v>
       </c>
       <c r="H17" t="n">
-        <v>6.13223454603887</v>
+        <v>6.132234546038874</v>
       </c>
       <c r="I17" t="n">
-        <v>23.08438641144037</v>
+        <v>23.08438641144039</v>
       </c>
       <c r="J17" t="n">
-        <v>50.82052891999188</v>
+        <v>50.82052891999192</v>
       </c>
       <c r="K17" t="n">
-        <v>76.16679898798411</v>
+        <v>76.16679898798417</v>
       </c>
       <c r="L17" t="n">
-        <v>94.49164927367552</v>
+        <v>94.49164927367559</v>
       </c>
       <c r="M17" t="n">
         <v>105.1401664086072</v>
       </c>
       <c r="N17" t="n">
-        <v>106.8414442217582</v>
+        <v>106.8414442217583</v>
       </c>
       <c r="O17" t="n">
         <v>100.8873461119402</v>
       </c>
       <c r="P17" t="n">
-        <v>86.10501579529573</v>
+        <v>86.1050157952958</v>
       </c>
       <c r="Q17" t="n">
-        <v>64.66128093089762</v>
+        <v>64.66128093089768</v>
       </c>
       <c r="R17" t="n">
-        <v>37.61298457733327</v>
+        <v>37.6129845773333</v>
       </c>
       <c r="S17" t="n">
-        <v>13.64465223657862</v>
+        <v>13.64465223657863</v>
       </c>
       <c r="T17" t="n">
-        <v>2.621150418677911</v>
+        <v>2.621150418677913</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04790223495013883</v>
+        <v>0.04790223495013887</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3203744404713593</v>
+        <v>0.3203744404713595</v>
       </c>
       <c r="H18" t="n">
-        <v>3.094142622447075</v>
+        <v>3.094142622447078</v>
       </c>
       <c r="I18" t="n">
-        <v>11.03043577938671</v>
+        <v>11.03043577938672</v>
       </c>
       <c r="J18" t="n">
-        <v>30.26835886926996</v>
+        <v>30.26835886926998</v>
       </c>
       <c r="K18" t="n">
-        <v>51.73344638085103</v>
+        <v>51.73344638085107</v>
       </c>
       <c r="L18" t="n">
-        <v>69.56200296287123</v>
+        <v>69.56200296287129</v>
       </c>
       <c r="M18" t="n">
-        <v>81.175576429958</v>
+        <v>81.17557642995806</v>
       </c>
       <c r="N18" t="n">
-        <v>83.32405239259269</v>
+        <v>83.32405239259276</v>
       </c>
       <c r="O18" t="n">
-        <v>76.22522926425363</v>
+        <v>76.22522926425368</v>
       </c>
       <c r="P18" t="n">
-        <v>61.17746661948264</v>
+        <v>61.17746661948269</v>
       </c>
       <c r="Q18" t="n">
-        <v>40.89551629595807</v>
+        <v>40.8955162959581</v>
       </c>
       <c r="R18" t="n">
-        <v>19.89131833031826</v>
+        <v>19.89131833031828</v>
       </c>
       <c r="S18" t="n">
-        <v>5.950814716650025</v>
+        <v>5.950814716650029</v>
       </c>
       <c r="T18" t="n">
-        <v>1.291333819268329</v>
+        <v>1.29133381926833</v>
       </c>
       <c r="U18" t="n">
-        <v>0.02107726582048417</v>
+        <v>0.02107726582048419</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2685911688162244</v>
+        <v>0.2685911688162246</v>
       </c>
       <c r="H19" t="n">
-        <v>2.388019664566069</v>
+        <v>2.388019664566071</v>
       </c>
       <c r="I19" t="n">
-        <v>8.077268967673369</v>
+        <v>8.077268967673374</v>
       </c>
       <c r="J19" t="n">
-        <v>18.98939563530706</v>
+        <v>18.98939563530708</v>
       </c>
       <c r="K19" t="n">
-        <v>31.20541034064861</v>
+        <v>31.20541034064863</v>
       </c>
       <c r="L19" t="n">
-        <v>39.93218158927758</v>
+        <v>39.93218158927761</v>
       </c>
       <c r="M19" t="n">
-        <v>42.10288658089233</v>
+        <v>42.10288658089236</v>
       </c>
       <c r="N19" t="n">
-        <v>41.10177404257735</v>
+        <v>41.10177404257738</v>
       </c>
       <c r="O19" t="n">
-        <v>37.96414084322416</v>
+        <v>37.96414084322419</v>
       </c>
       <c r="P19" t="n">
-        <v>32.48488099937316</v>
+        <v>32.48488099937319</v>
       </c>
       <c r="Q19" t="n">
-        <v>22.4908477815113</v>
+        <v>22.49084778151132</v>
       </c>
       <c r="R19" t="n">
-        <v>12.07683564513678</v>
+        <v>12.07683564513679</v>
       </c>
       <c r="S19" t="n">
-        <v>4.680811551097291</v>
+        <v>4.680811551097294</v>
       </c>
       <c r="T19" t="n">
         <v>1.147616812214777</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01465042738997589</v>
+        <v>0.0146504273899759</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32937,22 +32937,22 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5987779368767355</v>
+        <v>0.5987779368767356</v>
       </c>
       <c r="H26" t="n">
-        <v>6.13223454603887</v>
+        <v>6.132234546038871</v>
       </c>
       <c r="I26" t="n">
         <v>23.08438641144037</v>
       </c>
       <c r="J26" t="n">
-        <v>50.82052891999188</v>
+        <v>50.82052891999189</v>
       </c>
       <c r="K26" t="n">
-        <v>76.16679898798411</v>
+        <v>76.16679898798412</v>
       </c>
       <c r="L26" t="n">
-        <v>94.49164927367552</v>
+        <v>94.49164927367555</v>
       </c>
       <c r="M26" t="n">
         <v>105.1401664086072</v>
@@ -32964,22 +32964,22 @@
         <v>100.8873461119402</v>
       </c>
       <c r="P26" t="n">
-        <v>86.10501579529573</v>
+        <v>86.10501579529576</v>
       </c>
       <c r="Q26" t="n">
-        <v>64.66128093089762</v>
+        <v>64.66128093089763</v>
       </c>
       <c r="R26" t="n">
-        <v>37.61298457733327</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>13.64465223657862</v>
+        <v>13.64465223657863</v>
       </c>
       <c r="T26" t="n">
-        <v>2.621150418677911</v>
+        <v>2.621150418677912</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04790223495013883</v>
+        <v>0.04790223495013884</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33019,40 +33019,40 @@
         <v>0.3203744404713593</v>
       </c>
       <c r="H27" t="n">
-        <v>3.094142622447075</v>
+        <v>3.094142622447076</v>
       </c>
       <c r="I27" t="n">
-        <v>11.03043577938671</v>
+        <v>11.03043577938672</v>
       </c>
       <c r="J27" t="n">
-        <v>30.26835886926996</v>
+        <v>30.26835886926997</v>
       </c>
       <c r="K27" t="n">
-        <v>51.73344638085103</v>
+        <v>51.73344638085104</v>
       </c>
       <c r="L27" t="n">
-        <v>69.56200296287123</v>
+        <v>69.56200296287125</v>
       </c>
       <c r="M27" t="n">
-        <v>81.175576429958</v>
+        <v>81.17557642995801</v>
       </c>
       <c r="N27" t="n">
-        <v>83.32405239259269</v>
+        <v>83.32405239259271</v>
       </c>
       <c r="O27" t="n">
-        <v>76.22522926425363</v>
+        <v>76.22522926425364</v>
       </c>
       <c r="P27" t="n">
-        <v>61.17746661948264</v>
+        <v>61.17746661948265</v>
       </c>
       <c r="Q27" t="n">
-        <v>40.89551629595807</v>
+        <v>40.89551629595808</v>
       </c>
       <c r="R27" t="n">
-        <v>19.89131833031826</v>
+        <v>19.89131833031827</v>
       </c>
       <c r="S27" t="n">
-        <v>5.950814716650025</v>
+        <v>5.950814716650026</v>
       </c>
       <c r="T27" t="n">
         <v>1.291333819268329</v>
@@ -33098,31 +33098,31 @@
         <v>0.2685911688162244</v>
       </c>
       <c r="H28" t="n">
-        <v>2.388019664566069</v>
+        <v>2.38801966456607</v>
       </c>
       <c r="I28" t="n">
         <v>8.077268967673369</v>
       </c>
       <c r="J28" t="n">
-        <v>18.98939563530706</v>
+        <v>18.98939563530707</v>
       </c>
       <c r="K28" t="n">
         <v>31.20541034064861</v>
       </c>
       <c r="L28" t="n">
-        <v>39.93218158927758</v>
+        <v>39.93218158927759</v>
       </c>
       <c r="M28" t="n">
-        <v>42.10288658089233</v>
+        <v>42.10288658089234</v>
       </c>
       <c r="N28" t="n">
         <v>41.10177404257735</v>
       </c>
       <c r="O28" t="n">
-        <v>37.96414084322416</v>
+        <v>37.96414084322417</v>
       </c>
       <c r="P28" t="n">
-        <v>32.48488099937316</v>
+        <v>32.48488099937317</v>
       </c>
       <c r="Q28" t="n">
         <v>22.4908477815113</v>
@@ -33131,7 +33131,7 @@
         <v>12.07683564513678</v>
       </c>
       <c r="S28" t="n">
-        <v>4.680811551097291</v>
+        <v>4.680811551097292</v>
       </c>
       <c r="T28" t="n">
         <v>1.147616812214777</v>
@@ -33174,22 +33174,22 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5987779368767355</v>
+        <v>0.5987779368767356</v>
       </c>
       <c r="H29" t="n">
-        <v>6.13223454603887</v>
+        <v>6.132234546038871</v>
       </c>
       <c r="I29" t="n">
         <v>23.08438641144037</v>
       </c>
       <c r="J29" t="n">
-        <v>50.82052891999188</v>
+        <v>50.82052891999189</v>
       </c>
       <c r="K29" t="n">
-        <v>76.16679898798411</v>
+        <v>76.16679898798412</v>
       </c>
       <c r="L29" t="n">
-        <v>94.49164927367552</v>
+        <v>94.49164927367555</v>
       </c>
       <c r="M29" t="n">
         <v>105.1401664086072</v>
@@ -33201,22 +33201,22 @@
         <v>100.8873461119402</v>
       </c>
       <c r="P29" t="n">
-        <v>86.10501579529573</v>
+        <v>86.10501579529576</v>
       </c>
       <c r="Q29" t="n">
-        <v>64.66128093089762</v>
+        <v>64.66128093089763</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733327</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
-        <v>13.64465223657862</v>
+        <v>13.64465223657863</v>
       </c>
       <c r="T29" t="n">
-        <v>2.621150418677911</v>
+        <v>2.621150418677912</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04790223495013883</v>
+        <v>0.04790223495013884</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33256,40 +33256,40 @@
         <v>0.3203744404713593</v>
       </c>
       <c r="H30" t="n">
-        <v>3.094142622447075</v>
+        <v>3.094142622447076</v>
       </c>
       <c r="I30" t="n">
-        <v>11.03043577938671</v>
+        <v>11.03043577938672</v>
       </c>
       <c r="J30" t="n">
-        <v>30.26835886926996</v>
+        <v>30.26835886926997</v>
       </c>
       <c r="K30" t="n">
-        <v>51.73344638085103</v>
+        <v>51.73344638085104</v>
       </c>
       <c r="L30" t="n">
-        <v>69.56200296287123</v>
+        <v>69.56200296287125</v>
       </c>
       <c r="M30" t="n">
-        <v>81.175576429958</v>
+        <v>81.17557642995801</v>
       </c>
       <c r="N30" t="n">
-        <v>83.32405239259269</v>
+        <v>83.32405239259271</v>
       </c>
       <c r="O30" t="n">
-        <v>76.22522926425363</v>
+        <v>76.22522926425364</v>
       </c>
       <c r="P30" t="n">
-        <v>61.17746661948264</v>
+        <v>61.17746661948265</v>
       </c>
       <c r="Q30" t="n">
-        <v>40.89551629595807</v>
+        <v>40.89551629595808</v>
       </c>
       <c r="R30" t="n">
-        <v>19.89131833031826</v>
+        <v>19.89131833031827</v>
       </c>
       <c r="S30" t="n">
-        <v>5.950814716650025</v>
+        <v>5.950814716650026</v>
       </c>
       <c r="T30" t="n">
         <v>1.291333819268329</v>
@@ -33335,31 +33335,31 @@
         <v>0.2685911688162244</v>
       </c>
       <c r="H31" t="n">
-        <v>2.388019664566069</v>
+        <v>2.38801966456607</v>
       </c>
       <c r="I31" t="n">
         <v>8.077268967673369</v>
       </c>
       <c r="J31" t="n">
-        <v>18.98939563530706</v>
+        <v>18.98939563530707</v>
       </c>
       <c r="K31" t="n">
         <v>31.20541034064861</v>
       </c>
       <c r="L31" t="n">
-        <v>39.93218158927758</v>
+        <v>39.93218158927759</v>
       </c>
       <c r="M31" t="n">
-        <v>42.10288658089233</v>
+        <v>42.10288658089234</v>
       </c>
       <c r="N31" t="n">
         <v>41.10177404257735</v>
       </c>
       <c r="O31" t="n">
-        <v>37.96414084322416</v>
+        <v>37.96414084322417</v>
       </c>
       <c r="P31" t="n">
-        <v>32.48488099937316</v>
+        <v>32.48488099937317</v>
       </c>
       <c r="Q31" t="n">
         <v>22.4908477815113</v>
@@ -33368,7 +33368,7 @@
         <v>12.07683564513678</v>
       </c>
       <c r="S31" t="n">
-        <v>4.680811551097291</v>
+        <v>4.680811551097292</v>
       </c>
       <c r="T31" t="n">
         <v>1.147616812214777</v>
@@ -33411,22 +33411,22 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5987779368767355</v>
+        <v>0.5987779368767356</v>
       </c>
       <c r="H32" t="n">
-        <v>6.13223454603887</v>
+        <v>6.132234546038871</v>
       </c>
       <c r="I32" t="n">
         <v>23.08438641144037</v>
       </c>
       <c r="J32" t="n">
-        <v>50.82052891999188</v>
+        <v>50.82052891999189</v>
       </c>
       <c r="K32" t="n">
-        <v>76.16679898798411</v>
+        <v>76.16679898798412</v>
       </c>
       <c r="L32" t="n">
-        <v>94.49164927367552</v>
+        <v>94.49164927367555</v>
       </c>
       <c r="M32" t="n">
         <v>105.1401664086072</v>
@@ -33438,22 +33438,22 @@
         <v>100.8873461119402</v>
       </c>
       <c r="P32" t="n">
-        <v>86.10501579529573</v>
+        <v>86.10501579529576</v>
       </c>
       <c r="Q32" t="n">
-        <v>64.66128093089762</v>
+        <v>64.66128093089763</v>
       </c>
       <c r="R32" t="n">
-        <v>37.61298457733327</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>13.64465223657862</v>
+        <v>13.64465223657863</v>
       </c>
       <c r="T32" t="n">
-        <v>2.621150418677911</v>
+        <v>2.621150418677912</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04790223495013883</v>
+        <v>0.04790223495013884</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33493,40 +33493,40 @@
         <v>0.3203744404713593</v>
       </c>
       <c r="H33" t="n">
-        <v>3.094142622447075</v>
+        <v>3.094142622447076</v>
       </c>
       <c r="I33" t="n">
-        <v>11.03043577938671</v>
+        <v>11.03043577938672</v>
       </c>
       <c r="J33" t="n">
-        <v>30.26835886926996</v>
+        <v>30.26835886926997</v>
       </c>
       <c r="K33" t="n">
-        <v>51.73344638085103</v>
+        <v>51.73344638085104</v>
       </c>
       <c r="L33" t="n">
-        <v>69.56200296287123</v>
+        <v>69.56200296287125</v>
       </c>
       <c r="M33" t="n">
-        <v>81.175576429958</v>
+        <v>81.17557642995801</v>
       </c>
       <c r="N33" t="n">
-        <v>83.32405239259269</v>
+        <v>83.32405239259271</v>
       </c>
       <c r="O33" t="n">
-        <v>76.22522926425363</v>
+        <v>76.22522926425364</v>
       </c>
       <c r="P33" t="n">
-        <v>61.17746661948264</v>
+        <v>61.17746661948265</v>
       </c>
       <c r="Q33" t="n">
-        <v>40.89551629595807</v>
+        <v>40.89551629595808</v>
       </c>
       <c r="R33" t="n">
-        <v>19.89131833031826</v>
+        <v>19.89131833031827</v>
       </c>
       <c r="S33" t="n">
-        <v>5.950814716650025</v>
+        <v>5.950814716650026</v>
       </c>
       <c r="T33" t="n">
         <v>1.291333819268329</v>
@@ -33572,31 +33572,31 @@
         <v>0.2685911688162244</v>
       </c>
       <c r="H34" t="n">
-        <v>2.388019664566069</v>
+        <v>2.38801966456607</v>
       </c>
       <c r="I34" t="n">
         <v>8.077268967673369</v>
       </c>
       <c r="J34" t="n">
-        <v>18.98939563530706</v>
+        <v>18.98939563530707</v>
       </c>
       <c r="K34" t="n">
         <v>31.20541034064861</v>
       </c>
       <c r="L34" t="n">
-        <v>39.93218158927758</v>
+        <v>39.93218158927759</v>
       </c>
       <c r="M34" t="n">
-        <v>42.10288658089233</v>
+        <v>42.10288658089234</v>
       </c>
       <c r="N34" t="n">
         <v>41.10177404257735</v>
       </c>
       <c r="O34" t="n">
-        <v>37.96414084322416</v>
+        <v>37.96414084322417</v>
       </c>
       <c r="P34" t="n">
-        <v>32.48488099937316</v>
+        <v>32.48488099937317</v>
       </c>
       <c r="Q34" t="n">
         <v>22.4908477815113</v>
@@ -33605,7 +33605,7 @@
         <v>12.07683564513678</v>
       </c>
       <c r="S34" t="n">
-        <v>4.680811551097291</v>
+        <v>4.680811551097292</v>
       </c>
       <c r="T34" t="n">
         <v>1.147616812214777</v>
@@ -33648,22 +33648,22 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5987779368767355</v>
+        <v>0.5987779368767358</v>
       </c>
       <c r="H35" t="n">
-        <v>6.13223454603887</v>
+        <v>6.132234546038871</v>
       </c>
       <c r="I35" t="n">
-        <v>23.08438641144037</v>
+        <v>23.08438641144038</v>
       </c>
       <c r="J35" t="n">
-        <v>50.82052891999188</v>
+        <v>50.8205289199919</v>
       </c>
       <c r="K35" t="n">
-        <v>76.16679898798411</v>
+        <v>76.16679898798414</v>
       </c>
       <c r="L35" t="n">
-        <v>94.49164927367552</v>
+        <v>94.49164927367556</v>
       </c>
       <c r="M35" t="n">
         <v>105.1401664086072</v>
@@ -33675,22 +33675,22 @@
         <v>100.8873461119402</v>
       </c>
       <c r="P35" t="n">
-        <v>86.10501579529573</v>
+        <v>86.10501579529577</v>
       </c>
       <c r="Q35" t="n">
-        <v>64.66128093089762</v>
+        <v>64.66128093089765</v>
       </c>
       <c r="R35" t="n">
-        <v>37.61298457733327</v>
+        <v>37.61298457733329</v>
       </c>
       <c r="S35" t="n">
-        <v>13.64465223657862</v>
+        <v>13.64465223657863</v>
       </c>
       <c r="T35" t="n">
-        <v>2.621150418677911</v>
+        <v>2.621150418677912</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04790223495013883</v>
+        <v>0.04790223495013885</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.3203744404713593</v>
+        <v>0.3203744404713594</v>
       </c>
       <c r="H36" t="n">
-        <v>3.094142622447075</v>
+        <v>3.094142622447077</v>
       </c>
       <c r="I36" t="n">
-        <v>11.03043577938671</v>
+        <v>11.03043577938672</v>
       </c>
       <c r="J36" t="n">
-        <v>30.26835886926996</v>
+        <v>30.26835886926997</v>
       </c>
       <c r="K36" t="n">
-        <v>51.73344638085103</v>
+        <v>51.73344638085105</v>
       </c>
       <c r="L36" t="n">
-        <v>69.56200296287123</v>
+        <v>69.56200296287126</v>
       </c>
       <c r="M36" t="n">
-        <v>81.175576429958</v>
+        <v>81.17557642995803</v>
       </c>
       <c r="N36" t="n">
-        <v>83.32405239259269</v>
+        <v>83.32405239259272</v>
       </c>
       <c r="O36" t="n">
-        <v>76.22522926425363</v>
+        <v>76.22522926425366</v>
       </c>
       <c r="P36" t="n">
-        <v>61.17746661948264</v>
+        <v>61.17746661948266</v>
       </c>
       <c r="Q36" t="n">
-        <v>40.89551629595807</v>
+        <v>40.89551629595809</v>
       </c>
       <c r="R36" t="n">
-        <v>19.89131833031826</v>
+        <v>19.89131833031827</v>
       </c>
       <c r="S36" t="n">
-        <v>5.950814716650025</v>
+        <v>5.950814716650027</v>
       </c>
       <c r="T36" t="n">
-        <v>1.291333819268329</v>
+        <v>1.29133381926833</v>
       </c>
       <c r="U36" t="n">
-        <v>0.02107726582048417</v>
+        <v>0.02107726582048418</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2685911688162244</v>
+        <v>0.2685911688162245</v>
       </c>
       <c r="H37" t="n">
-        <v>2.388019664566069</v>
+        <v>2.38801966456607</v>
       </c>
       <c r="I37" t="n">
-        <v>8.077268967673369</v>
+        <v>8.077268967673371</v>
       </c>
       <c r="J37" t="n">
-        <v>18.98939563530706</v>
+        <v>18.98939563530707</v>
       </c>
       <c r="K37" t="n">
-        <v>31.20541034064861</v>
+        <v>31.20541034064862</v>
       </c>
       <c r="L37" t="n">
-        <v>39.93218158927758</v>
+        <v>39.9321815892776</v>
       </c>
       <c r="M37" t="n">
-        <v>42.10288658089233</v>
+        <v>42.10288658089235</v>
       </c>
       <c r="N37" t="n">
-        <v>41.10177404257735</v>
+        <v>41.10177404257736</v>
       </c>
       <c r="O37" t="n">
-        <v>37.96414084322416</v>
+        <v>37.96414084322418</v>
       </c>
       <c r="P37" t="n">
-        <v>32.48488099937316</v>
+        <v>32.48488099937317</v>
       </c>
       <c r="Q37" t="n">
-        <v>22.4908477815113</v>
+        <v>22.49084778151131</v>
       </c>
       <c r="R37" t="n">
         <v>12.07683564513678</v>
       </c>
       <c r="S37" t="n">
-        <v>4.680811551097291</v>
+        <v>4.680811551097293</v>
       </c>
       <c r="T37" t="n">
         <v>1.147616812214777</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01465042738997589</v>
+        <v>0.0146504273899759</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5987779368767356</v>
+        <v>0.5987779368767361</v>
       </c>
       <c r="H38" t="n">
-        <v>6.132234546038871</v>
+        <v>6.132234546038875</v>
       </c>
       <c r="I38" t="n">
-        <v>23.08438641144037</v>
+        <v>23.08438641144039</v>
       </c>
       <c r="J38" t="n">
-        <v>50.82052891999189</v>
+        <v>50.82052891999193</v>
       </c>
       <c r="K38" t="n">
-        <v>76.16679898798412</v>
+        <v>76.16679898798418</v>
       </c>
       <c r="L38" t="n">
-        <v>94.49164927367555</v>
+        <v>94.49164927367562</v>
       </c>
       <c r="M38" t="n">
-        <v>105.1401664086072</v>
+        <v>105.1401664086073</v>
       </c>
       <c r="N38" t="n">
-        <v>106.8414442217582</v>
+        <v>106.8414442217583</v>
       </c>
       <c r="O38" t="n">
         <v>100.8873461119402</v>
       </c>
       <c r="P38" t="n">
-        <v>86.10501579529576</v>
+        <v>86.10501579529581</v>
       </c>
       <c r="Q38" t="n">
-        <v>64.66128093089763</v>
+        <v>64.66128093089768</v>
       </c>
       <c r="R38" t="n">
-        <v>37.61298457733328</v>
+        <v>37.61298457733331</v>
       </c>
       <c r="S38" t="n">
-        <v>13.64465223657863</v>
+        <v>13.64465223657864</v>
       </c>
       <c r="T38" t="n">
-        <v>2.621150418677912</v>
+        <v>2.621150418677914</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04790223495013884</v>
+        <v>0.04790223495013888</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.3203744404713593</v>
+        <v>0.3203744404713596</v>
       </c>
       <c r="H39" t="n">
-        <v>3.094142622447076</v>
+        <v>3.094142622447078</v>
       </c>
       <c r="I39" t="n">
         <v>11.03043577938672</v>
       </c>
       <c r="J39" t="n">
-        <v>30.26835886926997</v>
+        <v>30.26835886926999</v>
       </c>
       <c r="K39" t="n">
-        <v>51.73344638085104</v>
+        <v>51.73344638085108</v>
       </c>
       <c r="L39" t="n">
-        <v>69.56200296287125</v>
+        <v>69.5620029628713</v>
       </c>
       <c r="M39" t="n">
-        <v>81.17557642995801</v>
+        <v>81.17557642995807</v>
       </c>
       <c r="N39" t="n">
-        <v>83.32405239259271</v>
+        <v>83.32405239259278</v>
       </c>
       <c r="O39" t="n">
-        <v>76.22522926425364</v>
+        <v>76.2252292642537</v>
       </c>
       <c r="P39" t="n">
-        <v>61.17746661948265</v>
+        <v>61.17746661948269</v>
       </c>
       <c r="Q39" t="n">
-        <v>40.89551629595808</v>
+        <v>40.89551629595812</v>
       </c>
       <c r="R39" t="n">
-        <v>19.89131833031827</v>
+        <v>19.89131833031828</v>
       </c>
       <c r="S39" t="n">
-        <v>5.950814716650026</v>
+        <v>5.95081471665003</v>
       </c>
       <c r="T39" t="n">
-        <v>1.291333819268329</v>
+        <v>1.29133381926833</v>
       </c>
       <c r="U39" t="n">
-        <v>0.02107726582048417</v>
+        <v>0.02107726582048419</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2685911688162244</v>
+        <v>0.2685911688162246</v>
       </c>
       <c r="H40" t="n">
-        <v>2.38801966456607</v>
+        <v>2.388019664566072</v>
       </c>
       <c r="I40" t="n">
-        <v>8.077268967673369</v>
+        <v>8.077268967673376</v>
       </c>
       <c r="J40" t="n">
-        <v>18.98939563530707</v>
+        <v>18.98939563530708</v>
       </c>
       <c r="K40" t="n">
-        <v>31.20541034064861</v>
+        <v>31.20541034064864</v>
       </c>
       <c r="L40" t="n">
-        <v>39.93218158927759</v>
+        <v>39.93218158927762</v>
       </c>
       <c r="M40" t="n">
-        <v>42.10288658089234</v>
+        <v>42.10288658089237</v>
       </c>
       <c r="N40" t="n">
-        <v>41.10177404257735</v>
+        <v>41.10177404257738</v>
       </c>
       <c r="O40" t="n">
-        <v>37.96414084322417</v>
+        <v>37.9641408432242</v>
       </c>
       <c r="P40" t="n">
-        <v>32.48488099937317</v>
+        <v>32.48488099937319</v>
       </c>
       <c r="Q40" t="n">
-        <v>22.4908477815113</v>
+        <v>22.49084778151132</v>
       </c>
       <c r="R40" t="n">
-        <v>12.07683564513678</v>
+        <v>12.07683564513679</v>
       </c>
       <c r="S40" t="n">
-        <v>4.680811551097292</v>
+        <v>4.680811551097295</v>
       </c>
       <c r="T40" t="n">
-        <v>1.147616812214777</v>
+        <v>1.147616812214778</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01465042738997589</v>
+        <v>0.01465042738997591</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5987779368767356</v>
+        <v>0.5987779368767361</v>
       </c>
       <c r="H41" t="n">
-        <v>6.132234546038871</v>
+        <v>6.132234546038875</v>
       </c>
       <c r="I41" t="n">
-        <v>23.08438641144037</v>
+        <v>23.08438641144039</v>
       </c>
       <c r="J41" t="n">
-        <v>50.82052891999189</v>
+        <v>50.82052891999193</v>
       </c>
       <c r="K41" t="n">
-        <v>76.16679898798412</v>
+        <v>76.16679898798418</v>
       </c>
       <c r="L41" t="n">
-        <v>94.49164927367555</v>
+        <v>94.49164927367562</v>
       </c>
       <c r="M41" t="n">
-        <v>105.1401664086072</v>
+        <v>105.1401664086073</v>
       </c>
       <c r="N41" t="n">
-        <v>106.8414442217582</v>
+        <v>106.8414442217583</v>
       </c>
       <c r="O41" t="n">
         <v>100.8873461119402</v>
       </c>
       <c r="P41" t="n">
-        <v>86.10501579529576</v>
+        <v>86.10501579529581</v>
       </c>
       <c r="Q41" t="n">
-        <v>64.66128093089763</v>
+        <v>64.66128093089768</v>
       </c>
       <c r="R41" t="n">
-        <v>37.61298457733328</v>
+        <v>37.61298457733331</v>
       </c>
       <c r="S41" t="n">
-        <v>13.64465223657863</v>
+        <v>13.64465223657864</v>
       </c>
       <c r="T41" t="n">
-        <v>2.621150418677912</v>
+        <v>2.621150418677914</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04790223495013884</v>
+        <v>0.04790223495013888</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.3203744404713593</v>
+        <v>0.3203744404713596</v>
       </c>
       <c r="H42" t="n">
-        <v>3.094142622447076</v>
+        <v>3.094142622447078</v>
       </c>
       <c r="I42" t="n">
         <v>11.03043577938672</v>
       </c>
       <c r="J42" t="n">
-        <v>30.26835886926997</v>
+        <v>30.26835886926999</v>
       </c>
       <c r="K42" t="n">
-        <v>51.73344638085104</v>
+        <v>51.73344638085108</v>
       </c>
       <c r="L42" t="n">
-        <v>69.56200296287125</v>
+        <v>69.5620029628713</v>
       </c>
       <c r="M42" t="n">
-        <v>81.17557642995801</v>
+        <v>81.17557642995807</v>
       </c>
       <c r="N42" t="n">
-        <v>83.32405239259271</v>
+        <v>83.32405239259278</v>
       </c>
       <c r="O42" t="n">
-        <v>76.22522926425364</v>
+        <v>76.2252292642537</v>
       </c>
       <c r="P42" t="n">
-        <v>61.17746661948265</v>
+        <v>61.17746661948269</v>
       </c>
       <c r="Q42" t="n">
-        <v>40.89551629595808</v>
+        <v>40.89551629595812</v>
       </c>
       <c r="R42" t="n">
-        <v>19.89131833031827</v>
+        <v>19.89131833031828</v>
       </c>
       <c r="S42" t="n">
-        <v>5.950814716650026</v>
+        <v>5.95081471665003</v>
       </c>
       <c r="T42" t="n">
-        <v>1.291333819268329</v>
+        <v>1.29133381926833</v>
       </c>
       <c r="U42" t="n">
-        <v>0.02107726582048417</v>
+        <v>0.02107726582048419</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2685911688162244</v>
+        <v>0.2685911688162246</v>
       </c>
       <c r="H43" t="n">
-        <v>2.38801966456607</v>
+        <v>2.388019664566072</v>
       </c>
       <c r="I43" t="n">
-        <v>8.077268967673369</v>
+        <v>8.077268967673376</v>
       </c>
       <c r="J43" t="n">
-        <v>18.98939563530707</v>
+        <v>18.98939563530708</v>
       </c>
       <c r="K43" t="n">
-        <v>31.20541034064861</v>
+        <v>31.20541034064864</v>
       </c>
       <c r="L43" t="n">
-        <v>39.93218158927759</v>
+        <v>39.93218158927762</v>
       </c>
       <c r="M43" t="n">
-        <v>42.10288658089234</v>
+        <v>42.10288658089237</v>
       </c>
       <c r="N43" t="n">
-        <v>41.10177404257735</v>
+        <v>41.10177404257738</v>
       </c>
       <c r="O43" t="n">
-        <v>37.96414084322417</v>
+        <v>37.9641408432242</v>
       </c>
       <c r="P43" t="n">
-        <v>32.48488099937317</v>
+        <v>32.48488099937319</v>
       </c>
       <c r="Q43" t="n">
-        <v>22.4908477815113</v>
+        <v>22.49084778151132</v>
       </c>
       <c r="R43" t="n">
-        <v>12.07683564513678</v>
+        <v>12.07683564513679</v>
       </c>
       <c r="S43" t="n">
-        <v>4.680811551097292</v>
+        <v>4.680811551097295</v>
       </c>
       <c r="T43" t="n">
-        <v>1.147616812214777</v>
+        <v>1.147616812214778</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01465042738997589</v>
+        <v>0.01465042738997591</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5987779368767356</v>
+        <v>0.5987779368767361</v>
       </c>
       <c r="H44" t="n">
-        <v>6.132234546038871</v>
+        <v>6.132234546038875</v>
       </c>
       <c r="I44" t="n">
-        <v>23.08438641144037</v>
+        <v>23.08438641144039</v>
       </c>
       <c r="J44" t="n">
-        <v>50.82052891999189</v>
+        <v>50.82052891999193</v>
       </c>
       <c r="K44" t="n">
-        <v>76.16679898798412</v>
+        <v>76.16679898798418</v>
       </c>
       <c r="L44" t="n">
-        <v>94.49164927367555</v>
+        <v>94.49164927367562</v>
       </c>
       <c r="M44" t="n">
-        <v>105.1401664086072</v>
+        <v>105.1401664086073</v>
       </c>
       <c r="N44" t="n">
-        <v>106.8414442217582</v>
+        <v>106.8414442217583</v>
       </c>
       <c r="O44" t="n">
         <v>100.8873461119402</v>
       </c>
       <c r="P44" t="n">
-        <v>86.10501579529576</v>
+        <v>86.10501579529581</v>
       </c>
       <c r="Q44" t="n">
-        <v>64.66128093089763</v>
+        <v>64.66128093089768</v>
       </c>
       <c r="R44" t="n">
-        <v>37.61298457733328</v>
+        <v>37.61298457733331</v>
       </c>
       <c r="S44" t="n">
-        <v>13.64465223657863</v>
+        <v>13.64465223657864</v>
       </c>
       <c r="T44" t="n">
-        <v>2.621150418677912</v>
+        <v>2.621150418677914</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04790223495013884</v>
+        <v>0.04790223495013888</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3203744404713593</v>
+        <v>0.3203744404713596</v>
       </c>
       <c r="H45" t="n">
-        <v>3.094142622447076</v>
+        <v>3.094142622447078</v>
       </c>
       <c r="I45" t="n">
         <v>11.03043577938672</v>
       </c>
       <c r="J45" t="n">
-        <v>30.26835886926997</v>
+        <v>30.26835886926999</v>
       </c>
       <c r="K45" t="n">
-        <v>51.73344638085104</v>
+        <v>51.73344638085108</v>
       </c>
       <c r="L45" t="n">
-        <v>69.56200296287125</v>
+        <v>69.5620029628713</v>
       </c>
       <c r="M45" t="n">
-        <v>81.17557642995801</v>
+        <v>81.17557642995807</v>
       </c>
       <c r="N45" t="n">
-        <v>83.32405239259271</v>
+        <v>83.32405239259278</v>
       </c>
       <c r="O45" t="n">
-        <v>76.22522926425364</v>
+        <v>76.2252292642537</v>
       </c>
       <c r="P45" t="n">
-        <v>61.17746661948265</v>
+        <v>61.17746661948269</v>
       </c>
       <c r="Q45" t="n">
-        <v>40.89551629595808</v>
+        <v>40.89551629595812</v>
       </c>
       <c r="R45" t="n">
-        <v>19.89131833031827</v>
+        <v>19.89131833031828</v>
       </c>
       <c r="S45" t="n">
-        <v>5.950814716650026</v>
+        <v>5.95081471665003</v>
       </c>
       <c r="T45" t="n">
-        <v>1.291333819268329</v>
+        <v>1.29133381926833</v>
       </c>
       <c r="U45" t="n">
-        <v>0.02107726582048417</v>
+        <v>0.02107726582048419</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2685911688162244</v>
+        <v>0.2685911688162246</v>
       </c>
       <c r="H46" t="n">
-        <v>2.38801966456607</v>
+        <v>2.388019664566072</v>
       </c>
       <c r="I46" t="n">
-        <v>8.077268967673369</v>
+        <v>8.077268967673376</v>
       </c>
       <c r="J46" t="n">
-        <v>18.98939563530707</v>
+        <v>18.98939563530708</v>
       </c>
       <c r="K46" t="n">
-        <v>31.20541034064861</v>
+        <v>31.20541034064864</v>
       </c>
       <c r="L46" t="n">
-        <v>39.93218158927759</v>
+        <v>39.93218158927762</v>
       </c>
       <c r="M46" t="n">
-        <v>42.10288658089234</v>
+        <v>42.10288658089237</v>
       </c>
       <c r="N46" t="n">
-        <v>41.10177404257735</v>
+        <v>41.10177404257738</v>
       </c>
       <c r="O46" t="n">
-        <v>37.96414084322417</v>
+        <v>37.9641408432242</v>
       </c>
       <c r="P46" t="n">
-        <v>32.48488099937317</v>
+        <v>32.48488099937319</v>
       </c>
       <c r="Q46" t="n">
-        <v>22.4908477815113</v>
+        <v>22.49084778151132</v>
       </c>
       <c r="R46" t="n">
-        <v>12.07683564513678</v>
+        <v>12.07683564513679</v>
       </c>
       <c r="S46" t="n">
-        <v>4.680811551097292</v>
+        <v>4.680811551097295</v>
       </c>
       <c r="T46" t="n">
-        <v>1.147616812214777</v>
+        <v>1.147616812214778</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01465042738997589</v>
+        <v>0.01465042738997591</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>460.9053113835787</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>351.7045375065877</v>
+        <v>152.0172254979396</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
         <v>322.9688344062893</v>
@@ -34786,10 +34786,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>247.8874524576771</v>
       </c>
       <c r="N3" t="n">
-        <v>362.1450102553806</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>521.7376591828091</v>
@@ -34935,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
         <v>362.6084404317796</v>
@@ -34944,19 +34944,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>551.5160606510915</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O5" t="n">
-        <v>396.1825288359623</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>5.39872490859134</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
         <v>322.9688344062893</v>
@@ -35023,10 +35023,10 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N6" t="n">
-        <v>495.9158915145745</v>
+        <v>144.9259180048591</v>
       </c>
       <c r="O6" t="n">
         <v>521.7376591828091</v>
@@ -35035,7 +35035,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,13 +35172,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>274.1926243725193</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
@@ -35187,13 +35187,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>444.4844453457863</v>
+        <v>250.071647109874</v>
       </c>
       <c r="P8" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>591.4121262692948</v>
+        <v>144.9259180048591</v>
       </c>
       <c r="N9" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
-        <v>347.5093868705981</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35421,7 +35421,7 @@
         <v>594.8009314897743</v>
       </c>
       <c r="N11" t="n">
-        <v>577.127976046703</v>
+        <v>577.1279760467031</v>
       </c>
       <c r="O11" t="n">
         <v>486.01848409499</v>
@@ -35497,7 +35497,7 @@
         <v>517.0883847397491</v>
       </c>
       <c r="M12" t="n">
-        <v>221.3323944711582</v>
+        <v>474.9009747168299</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35509,7 +35509,7 @@
         <v>434.9045400845276</v>
       </c>
       <c r="Q12" t="n">
-        <v>253.5685802456715</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>95.50852869910938</v>
+        <v>95.50852869910939</v>
       </c>
       <c r="L13" t="n">
         <v>182.2250666948795</v>
@@ -35588,7 +35588,7 @@
         <v>134.4606489664113</v>
       </c>
       <c r="Q13" t="n">
-        <v>12.71596032425967</v>
+        <v>12.71596032425968</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35658,7 +35658,7 @@
         <v>594.8009314897743</v>
       </c>
       <c r="N14" t="n">
-        <v>577.127976046703</v>
+        <v>577.1279760467031</v>
       </c>
       <c r="O14" t="n">
         <v>486.01848409499</v>
@@ -35734,16 +35734,16 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>667.5317309847173</v>
+        <v>476.6198743294595</v>
       </c>
       <c r="N15" t="n">
-        <v>70.88904822618991</v>
+        <v>696.7054449659754</v>
       </c>
       <c r="O15" t="n">
         <v>553.1186177265661</v>
       </c>
       <c r="P15" t="n">
-        <v>434.9045400845276</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>253.5685802456715</v>
@@ -35807,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>95.50852869910938</v>
+        <v>95.50852869910939</v>
       </c>
       <c r="L16" t="n">
         <v>182.2250666948795</v>
@@ -35825,7 +35825,7 @@
         <v>134.4606489664113</v>
       </c>
       <c r="Q16" t="n">
-        <v>12.71596032425967</v>
+        <v>12.71596032425968</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,10 +35886,10 @@
         <v>196.9314106460809</v>
       </c>
       <c r="K17" t="n">
-        <v>438.7752394197637</v>
+        <v>438.7752394197638</v>
       </c>
       <c r="L17" t="n">
-        <v>592.7949742418865</v>
+        <v>592.7949742418866</v>
       </c>
       <c r="M17" t="n">
         <v>656.6562270596987</v>
@@ -35898,13 +35898,13 @@
         <v>639.9841549666694</v>
       </c>
       <c r="O17" t="n">
-        <v>545.3717914577264</v>
+        <v>545.3717914577265</v>
       </c>
       <c r="P17" t="n">
         <v>437.8095533018835</v>
       </c>
       <c r="Q17" t="n">
-        <v>251.3739679419567</v>
+        <v>251.3739679419568</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>144.5259166669744</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>374.7022807871404</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>558.0125947793493</v>
       </c>
       <c r="M18" t="n">
-        <v>715.2883538306461</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>745.7260435143695</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>597.9628884470627</v>
+        <v>473.5441852458939</v>
       </c>
       <c r="P18" t="n">
-        <v>240.3316445737181</v>
+        <v>470.89602087847</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>277.6279320079687</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36053,16 +36053,16 @@
         <v>230.2761980336843</v>
       </c>
       <c r="N19" t="n">
-        <v>226.1418084175361</v>
+        <v>226.1418084175362</v>
       </c>
       <c r="O19" t="n">
         <v>202.312390380303</v>
       </c>
       <c r="P19" t="n">
-        <v>153.5719171373313</v>
+        <v>153.5719171373314</v>
       </c>
       <c r="Q19" t="n">
-        <v>25.94761179166378</v>
+        <v>25.9476117916638</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>20.10721346580559</v>
       </c>
       <c r="K21" t="n">
         <v>374.7022807871404</v>
@@ -36208,7 +36208,7 @@
         <v>558.0125947793493</v>
       </c>
       <c r="M21" t="n">
-        <v>715.2883538306461</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -36217,10 +36217,10 @@
         <v>597.9628884470628</v>
       </c>
       <c r="P21" t="n">
-        <v>53.34281252159801</v>
+        <v>470.8960208784699</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>277.6279320079687</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>144.5259166669744</v>
       </c>
       <c r="K24" t="n">
         <v>374.7022807871404</v>
@@ -36445,19 +36445,19 @@
         <v>558.0125947793492</v>
       </c>
       <c r="M24" t="n">
-        <v>715.2883538306461</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>53.34281252159801</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>597.9628884470627</v>
+        <v>473.5441852458941</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>470.8960208784699</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>277.6279320079687</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36615,7 +36615,7 @@
         <v>437.8095533018835</v>
       </c>
       <c r="Q26" t="n">
-        <v>251.3739679419567</v>
+        <v>251.3739679419568</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36679,16 +36679,16 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>240.3316445737182</v>
+        <v>240.3316445737181</v>
       </c>
       <c r="M27" t="n">
         <v>715.2883538306461</v>
       </c>
       <c r="N27" t="n">
-        <v>745.7260435143695</v>
+        <v>745.7260435143696</v>
       </c>
       <c r="O27" t="n">
-        <v>597.9628884470627</v>
+        <v>597.9628884470628</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36773,7 +36773,7 @@
         <v>153.5719171373313</v>
       </c>
       <c r="Q28" t="n">
-        <v>25.94761179166378</v>
+        <v>25.94761179166379</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36852,7 +36852,7 @@
         <v>437.8095533018835</v>
       </c>
       <c r="Q29" t="n">
-        <v>251.3739679419567</v>
+        <v>251.3739679419568</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36913,22 +36913,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>374.7022807871404</v>
       </c>
       <c r="L30" t="n">
-        <v>240.3316445737192</v>
+        <v>558.0125947793492</v>
       </c>
       <c r="M30" t="n">
-        <v>715.2883538306461</v>
+        <v>297.7351454737743</v>
       </c>
       <c r="N30" t="n">
-        <v>745.7260435143695</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>597.9628884470627</v>
+        <v>597.9628884470628</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>470.8960208784699</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37010,7 +37010,7 @@
         <v>153.5719171373313</v>
       </c>
       <c r="Q31" t="n">
-        <v>25.94761179166378</v>
+        <v>25.94761179166379</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37089,7 +37089,7 @@
         <v>437.8095533018835</v>
       </c>
       <c r="Q32" t="n">
-        <v>251.3739679419567</v>
+        <v>251.3739679419568</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37150,22 +37150,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>374.7022807871404</v>
       </c>
       <c r="L33" t="n">
-        <v>240.3316445737182</v>
+        <v>558.0125947793492</v>
       </c>
       <c r="M33" t="n">
-        <v>715.2883538306461</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>745.7260435143695</v>
+        <v>297.7351454737743</v>
       </c>
       <c r="O33" t="n">
-        <v>597.9628884470627</v>
+        <v>597.9628884470628</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>470.8960208784699</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37247,7 +37247,7 @@
         <v>153.5719171373313</v>
       </c>
       <c r="Q34" t="n">
-        <v>25.94761179166378</v>
+        <v>25.94761179166379</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37326,7 +37326,7 @@
         <v>437.8095533018835</v>
       </c>
       <c r="Q35" t="n">
-        <v>251.3739679419567</v>
+        <v>251.3739679419568</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37387,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>374.7022807871404</v>
       </c>
       <c r="L36" t="n">
-        <v>558.0125947793492</v>
+        <v>558.0125947793493</v>
       </c>
       <c r="M36" t="n">
-        <v>715.2883538306461</v>
+        <v>618.0701019128684</v>
       </c>
       <c r="N36" t="n">
-        <v>745.7260435143695</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>280.2819382414318</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>470.8960208784699</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>277.6279320079687</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37481,10 +37481,10 @@
         <v>202.312390380303</v>
       </c>
       <c r="P37" t="n">
-        <v>153.5719171373313</v>
+        <v>153.5719171373314</v>
       </c>
       <c r="Q37" t="n">
-        <v>25.94761179166378</v>
+        <v>25.94761179166379</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,10 +37545,10 @@
         <v>196.9314106460809</v>
       </c>
       <c r="K38" t="n">
-        <v>438.7752394197637</v>
+        <v>438.7752394197638</v>
       </c>
       <c r="L38" t="n">
-        <v>592.7949742418865</v>
+        <v>592.7949742418866</v>
       </c>
       <c r="M38" t="n">
         <v>656.6562270596987</v>
@@ -37557,7 +37557,7 @@
         <v>639.9841549666694</v>
       </c>
       <c r="O38" t="n">
-        <v>545.3717914577264</v>
+        <v>545.3717914577265</v>
       </c>
       <c r="P38" t="n">
         <v>437.8095533018835</v>
@@ -37624,22 +37624,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>374.7022807871404</v>
       </c>
       <c r="L39" t="n">
-        <v>558.0125947793492</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>715.2883538306461</v>
+        <v>110.0216967387538</v>
       </c>
       <c r="N39" t="n">
         <v>745.7260435143696</v>
       </c>
       <c r="O39" t="n">
-        <v>280.2819382414314</v>
+        <v>597.9628884470628</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>470.89602087847</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37712,16 +37712,16 @@
         <v>230.2761980336843</v>
       </c>
       <c r="N40" t="n">
-        <v>226.1418084175361</v>
+        <v>226.1418084175362</v>
       </c>
       <c r="O40" t="n">
         <v>202.312390380303</v>
       </c>
       <c r="P40" t="n">
-        <v>153.5719171373313</v>
+        <v>153.5719171373314</v>
       </c>
       <c r="Q40" t="n">
-        <v>25.94761179166379</v>
+        <v>25.9476117916638</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,13 +37779,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>45.2439731939029</v>
       </c>
       <c r="K41" t="n">
-        <v>232.6452446717099</v>
+        <v>438.7752394197638</v>
       </c>
       <c r="L41" t="n">
-        <v>592.7949742418865</v>
+        <v>592.7949742418866</v>
       </c>
       <c r="M41" t="n">
         <v>656.6562270596987</v>
@@ -37794,13 +37794,13 @@
         <v>639.9841549666694</v>
       </c>
       <c r="O41" t="n">
-        <v>545.3717914577264</v>
+        <v>545.3717914577265</v>
       </c>
       <c r="P41" t="n">
         <v>437.8095533018835</v>
       </c>
       <c r="Q41" t="n">
-        <v>251.3739679419568</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37861,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>374.7022807871404</v>
       </c>
       <c r="L42" t="n">
-        <v>240.3316445737184</v>
+        <v>558.0125947793493</v>
       </c>
       <c r="M42" t="n">
-        <v>715.2883538306461</v>
+        <v>297.7351454737745</v>
       </c>
       <c r="N42" t="n">
-        <v>745.7260435143696</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>597.9628884470628</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>470.89602087847</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37949,16 +37949,16 @@
         <v>230.2761980336843</v>
       </c>
       <c r="N43" t="n">
-        <v>226.1418084175361</v>
+        <v>226.1418084175362</v>
       </c>
       <c r="O43" t="n">
         <v>202.312390380303</v>
       </c>
       <c r="P43" t="n">
-        <v>153.5719171373313</v>
+        <v>153.5719171373314</v>
       </c>
       <c r="Q43" t="n">
-        <v>25.94761179166379</v>
+        <v>25.9476117916638</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,13 +38016,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>45.24397319390262</v>
+        <v>196.9314106460809</v>
       </c>
       <c r="K44" t="n">
-        <v>438.7752394197637</v>
+        <v>438.7752394197638</v>
       </c>
       <c r="L44" t="n">
-        <v>592.7949742418865</v>
+        <v>592.7949742418866</v>
       </c>
       <c r="M44" t="n">
         <v>656.6562270596987</v>
@@ -38031,13 +38031,13 @@
         <v>639.9841549666694</v>
       </c>
       <c r="O44" t="n">
-        <v>545.3717914577264</v>
+        <v>142.3103860635921</v>
       </c>
       <c r="P44" t="n">
         <v>437.8095533018835</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>251.3739679419568</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38186,16 +38186,16 @@
         <v>230.2761980336843</v>
       </c>
       <c r="N46" t="n">
-        <v>226.1418084175361</v>
+        <v>226.1418084175362</v>
       </c>
       <c r="O46" t="n">
         <v>202.312390380303</v>
       </c>
       <c r="P46" t="n">
-        <v>153.5719171373313</v>
+        <v>153.5719171373314</v>
       </c>
       <c r="Q46" t="n">
-        <v>25.94761179166379</v>
+        <v>25.9476117916638</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
